--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\project\generate-qr-code\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CDD424-6D52-438A-9621-5D6A0D89D09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="15460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,6 +18,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,9 +27,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+  <si>
+    <t>NO</t>
+  </si>
   <si>
     <t>Kanwil</t>
+  </si>
+  <si>
+    <t>Kode Cabang</t>
+  </si>
+  <si>
+    <t>Area</t>
   </si>
   <si>
     <t>Cabang</t>
@@ -48,13 +53,10 @@
     <t>NULL</t>
   </si>
   <si>
-    <t>CP MOJOSARI</t>
+    <t>60082</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Kode Cabang</t>
+    <t>CP MOJOSARI</t>
   </si>
   <si>
     <t>KANWIL MEDAN</t>
@@ -63,51 +65,51 @@
     <t>60083</t>
   </si>
   <si>
+    <t>AREA AMBON</t>
+  </si>
+  <si>
     <t>CPS SUBULUSALAM ( REGROUPING )</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>60082</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>https://linktr.ee/PDR2025</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>AREA AMBON</t>
+    <t>https://forms.gle/9dqToFd3MhNk9Po67</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -115,22 +117,348 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -138,29 +466,315 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -358,140 +972,144 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="4" width="19.4453125" customWidth="1"/>
     <col min="5" max="5" width="33.5546875" customWidth="1"/>
-    <col min="6" max="6" width="217.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="217.890625" customWidth="1"/>
     <col min="7" max="7" width="3.6640625" customWidth="1"/>
     <col min="8" max="8" width="13.109375" customWidth="1"/>
     <col min="9" max="29" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" ht="14.25" customHeight="1" spans="1:7">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" ht="14.25" customHeight="1" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F2" s="3" t="str">
-        <f>CONCATENATE("https://docs.google.com/forms/d/e/1FAIpQLSecl1HCHlX_5sqCVOw5YgRaZ5mnWNwb_vzgz00RqpCV28fxQg/viewform?usp=pp_url&amp;entry.1150951425=", B2, "&amp;entry.1241972844=", D2, "&amp;entry.2092289110=", E2)</f>
+        <f>CONCATENATE("https://docs.google.com/forms/d/e/1FAIpQLSecl1HCHlX_5sqCVOw5YgRaZ5mnWNwb_vzgz00RqpCV28fxQg/viewform?usp=pp_url&amp;entry.1150951425=",B2,"&amp;entry.1241972844=",D2,"&amp;entry.2092289110=",E2)</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSecl1HCHlX_5sqCVOw5YgRaZ5mnWNwb_vzgz00RqpCV28fxQg/viewform?usp=pp_url&amp;entry.1150951425=NULL&amp;entry.1241972844=NULL&amp;entry.2092289110=CP MOJOSARI</v>
       </c>
       <c r="G2" s="1" t="e">
-        <f ca="1">IMAGE("https://api.qrserver.com/v1/create-qr-code/?size=500x500&amp;data="&amp;_xludf.ENCODEURL(F2))</f>
+        <f>IMAGE("https://api.qrserver.com/v1/create-qr-code/?size=500x500&amp;data="&amp;_xlfn.ENCODEURL(F2))</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" ht="14.25" customHeight="1" spans="1:7">
       <c r="A3" s="2">
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F3" s="3" t="str">
-        <f>CONCATENATE("https://docs.google.com/forms/d/e/1FAIpQLSecl1HCHlX_5sqCVOw5YgRaZ5mnWNwb_vzgz00RqpCV28fxQg/viewform?usp=pp_url&amp;entry.1150951425=", B3, "&amp;entry.1241972844=", D3, "&amp;entry.2092289110=", E3)</f>
+        <f>CONCATENATE("https://docs.google.com/forms/d/e/1FAIpQLSecl1HCHlX_5sqCVOw5YgRaZ5mnWNwb_vzgz00RqpCV28fxQg/viewform?usp=pp_url&amp;entry.1150951425=",B3,"&amp;entry.1241972844=",D3,"&amp;entry.2092289110=",E3)</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSecl1HCHlX_5sqCVOw5YgRaZ5mnWNwb_vzgz00RqpCV28fxQg/viewform?usp=pp_url&amp;entry.1150951425=KANWIL MEDAN&amp;entry.1241972844=AREA AMBON&amp;entry.2092289110=CPS SUBULUSALAM ( REGROUPING )</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" ht="14.25" customHeight="1" spans="2:8">
       <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3" t="s">
-        <v>13</v>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" ht="14.25" customHeight="1" spans="2:8">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" ht="14.25" customHeight="1" spans="2:8">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" ht="14.25" customHeight="1" spans="2:8">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" ht="14.25" customHeight="1" spans="2:7">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -499,7 +1117,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" ht="14.25" customHeight="1" spans="2:7">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -507,7 +1125,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" ht="14.25" customHeight="1" spans="2:7">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -515,7 +1133,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" ht="14.25" customHeight="1" spans="2:7">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -523,7 +1141,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" ht="14.25" customHeight="1" spans="2:7">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -531,7 +1149,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" ht="14.25" customHeight="1" spans="2:7">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -539,7 +1157,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" ht="14.25" customHeight="1" spans="2:7">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -547,7 +1165,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" ht="14.25" customHeight="1" spans="2:7">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -555,7 +1173,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" ht="14.25" customHeight="1" spans="2:7">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -563,7 +1181,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" ht="14.25" customHeight="1" spans="2:7">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -571,7 +1189,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" ht="14.25" customHeight="1" spans="2:7">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -579,7 +1197,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" ht="14.25" customHeight="1" spans="2:7">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -587,7 +1205,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" ht="14.25" customHeight="1" spans="2:7">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -595,7 +1213,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" ht="14.25" customHeight="1" spans="2:7">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -603,7 +1221,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" ht="14.25" customHeight="1" spans="2:7">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -611,7 +1229,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" ht="14.25" customHeight="1" spans="2:7">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -619,7 +1237,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" ht="14.25" customHeight="1" spans="2:7">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -627,7 +1245,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" ht="14.25" customHeight="1" spans="2:7">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -635,7 +1253,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" ht="14.25" customHeight="1" spans="2:7">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -643,7 +1261,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" ht="14.25" customHeight="1" spans="2:7">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -651,7 +1269,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" ht="14.25" customHeight="1" spans="2:7">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -659,7 +1277,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" ht="14.25" customHeight="1" spans="2:7">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -667,7 +1285,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" ht="14.25" customHeight="1" spans="2:7">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -675,7 +1293,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" ht="14.25" customHeight="1" spans="2:7">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -683,7 +1301,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" ht="14.25" customHeight="1" spans="2:7">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -691,7 +1309,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" ht="14.25" customHeight="1" spans="2:7">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -699,7 +1317,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" ht="14.25" customHeight="1" spans="2:7">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -707,7 +1325,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" ht="14.25" customHeight="1" spans="2:7">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -715,7 +1333,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" ht="14.25" customHeight="1" spans="2:7">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -723,7 +1341,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" ht="14.25" customHeight="1" spans="2:7">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -731,7 +1349,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" ht="14.25" customHeight="1" spans="2:7">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -739,7 +1357,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" ht="14.25" customHeight="1" spans="2:7">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -747,7 +1365,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" ht="14.25" customHeight="1" spans="2:7">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -755,7 +1373,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" ht="14.25" customHeight="1" spans="2:7">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -763,7 +1381,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" ht="14.25" customHeight="1" spans="2:7">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -771,7 +1389,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" ht="14.25" customHeight="1" spans="2:7">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -779,7 +1397,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" ht="14.25" customHeight="1" spans="2:7">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -787,7 +1405,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" ht="14.25" customHeight="1" spans="2:7">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -795,7 +1413,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" ht="14.25" customHeight="1" spans="2:7">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -803,7 +1421,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" ht="14.25" customHeight="1" spans="2:7">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -811,7 +1429,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" ht="14.25" customHeight="1" spans="2:7">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -819,7 +1437,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" ht="14.25" customHeight="1" spans="2:7">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -827,7 +1445,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" ht="14.25" customHeight="1" spans="2:7">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -835,7 +1453,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" ht="14.25" customHeight="1" spans="2:7">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -843,7 +1461,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" ht="14.25" customHeight="1" spans="2:7">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -851,7 +1469,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" ht="14.25" customHeight="1" spans="2:7">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -859,7 +1477,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" ht="14.25" customHeight="1" spans="2:7">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -867,7 +1485,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" ht="14.25" customHeight="1" spans="2:7">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -875,7 +1493,7 @@
       <c r="F55" s="3"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" ht="14.25" customHeight="1" spans="2:7">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -883,7 +1501,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" ht="14.25" customHeight="1" spans="2:7">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -891,7 +1509,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" ht="14.25" customHeight="1" spans="2:7">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -899,7 +1517,7 @@
       <c r="F58" s="3"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" ht="14.25" customHeight="1" spans="2:7">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -907,7 +1525,7 @@
       <c r="F59" s="3"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" ht="14.25" customHeight="1" spans="2:7">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -915,7 +1533,7 @@
       <c r="F60" s="3"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" ht="14.25" customHeight="1" spans="2:7">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -923,7 +1541,7 @@
       <c r="F61" s="3"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" ht="14.25" customHeight="1" spans="2:7">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -931,7 +1549,7 @@
       <c r="F62" s="3"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" ht="14.25" customHeight="1" spans="2:7">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -939,7 +1557,7 @@
       <c r="F63" s="3"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" ht="14.25" customHeight="1" spans="2:7">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -947,7 +1565,7 @@
       <c r="F64" s="3"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" ht="14.25" customHeight="1" spans="2:7">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -955,7 +1573,7 @@
       <c r="F65" s="3"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" ht="14.25" customHeight="1" spans="2:7">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -963,7 +1581,7 @@
       <c r="F66" s="3"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" ht="14.25" customHeight="1" spans="2:7">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -971,7 +1589,7 @@
       <c r="F67" s="3"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" ht="14.25" customHeight="1" spans="2:7">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -979,7 +1597,7 @@
       <c r="F68" s="3"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" ht="14.25" customHeight="1" spans="2:7">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -987,7 +1605,7 @@
       <c r="F69" s="3"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" ht="14.25" customHeight="1" spans="2:7">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -995,7 +1613,7 @@
       <c r="F70" s="3"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" ht="14.25" customHeight="1" spans="2:7">
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -1003,7 +1621,7 @@
       <c r="F71" s="3"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" ht="14.25" customHeight="1" spans="2:7">
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -1011,7 +1629,7 @@
       <c r="F72" s="3"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" ht="14.25" customHeight="1" spans="2:7">
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -1019,7 +1637,7 @@
       <c r="F73" s="3"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" ht="14.25" customHeight="1" spans="2:7">
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -1027,7 +1645,7 @@
       <c r="F74" s="3"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" ht="14.25" customHeight="1" spans="2:7">
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -1035,7 +1653,7 @@
       <c r="F75" s="3"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" ht="14.25" customHeight="1" spans="2:7">
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -1043,7 +1661,7 @@
       <c r="F76" s="3"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" ht="14.25" customHeight="1" spans="2:7">
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -1051,7 +1669,7 @@
       <c r="F77" s="3"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" ht="14.25" customHeight="1" spans="2:7">
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -1059,7 +1677,7 @@
       <c r="F78" s="3"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" ht="14.25" customHeight="1" spans="2:7">
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -1067,7 +1685,7 @@
       <c r="F79" s="3"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" ht="14.25" customHeight="1" spans="2:7">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -1075,7 +1693,7 @@
       <c r="F80" s="3"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" ht="14.25" customHeight="1" spans="2:7">
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -1083,7 +1701,7 @@
       <c r="F81" s="3"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" ht="14.25" customHeight="1" spans="2:7">
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -1091,7 +1709,7 @@
       <c r="F82" s="3"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" ht="14.25" customHeight="1" spans="2:7">
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -1099,7 +1717,7 @@
       <c r="F83" s="3"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" ht="14.25" customHeight="1" spans="2:7">
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -1107,7 +1725,7 @@
       <c r="F84" s="3"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" ht="14.25" customHeight="1" spans="2:7">
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -1115,7 +1733,7 @@
       <c r="F85" s="3"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" ht="14.25" customHeight="1" spans="2:7">
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -1123,7 +1741,7 @@
       <c r="F86" s="3"/>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" ht="14.25" customHeight="1" spans="2:7">
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -1131,7 +1749,7 @@
       <c r="F87" s="3"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" ht="14.25" customHeight="1" spans="2:7">
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -1139,7 +1757,7 @@
       <c r="F88" s="3"/>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" ht="14.25" customHeight="1" spans="2:7">
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -1147,7 +1765,7 @@
       <c r="F89" s="3"/>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" ht="14.25" customHeight="1" spans="2:7">
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -1155,7 +1773,7 @@
       <c r="F90" s="3"/>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" ht="14.25" customHeight="1" spans="2:7">
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -1163,7 +1781,7 @@
       <c r="F91" s="3"/>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" ht="14.25" customHeight="1" spans="2:7">
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -1171,7 +1789,7 @@
       <c r="F92" s="3"/>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" ht="14.25" customHeight="1" spans="2:7">
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -1179,7 +1797,7 @@
       <c r="F93" s="3"/>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" ht="14.25" customHeight="1" spans="2:7">
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -1187,7 +1805,7 @@
       <c r="F94" s="3"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" ht="14.25" customHeight="1" spans="2:7">
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -1195,7 +1813,7 @@
       <c r="F95" s="3"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" ht="14.25" customHeight="1" spans="2:7">
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -1203,7 +1821,7 @@
       <c r="F96" s="3"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" ht="14.25" customHeight="1" spans="2:7">
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -1211,7 +1829,7 @@
       <c r="F97" s="3"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" ht="14.25" customHeight="1" spans="2:7">
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -1219,7 +1837,7 @@
       <c r="F98" s="3"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" ht="14.25" customHeight="1" spans="2:7">
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -1227,7 +1845,7 @@
       <c r="F99" s="3"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" ht="14.25" customHeight="1" spans="2:7">
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -1235,7 +1853,7 @@
       <c r="F100" s="3"/>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" ht="14.25" customHeight="1" spans="2:7">
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -1243,7 +1861,7 @@
       <c r="F101" s="3"/>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" ht="14.25" customHeight="1" spans="2:7">
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -1251,7 +1869,7 @@
       <c r="F102" s="3"/>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" ht="14.25" customHeight="1" spans="2:7">
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -1259,7 +1877,7 @@
       <c r="F103" s="3"/>
       <c r="G103" s="1"/>
     </row>
-    <row r="104" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" ht="14.25" customHeight="1" spans="2:7">
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -1267,7 +1885,7 @@
       <c r="F104" s="3"/>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" ht="14.25" customHeight="1" spans="2:7">
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -1275,7 +1893,7 @@
       <c r="F105" s="3"/>
       <c r="G105" s="1"/>
     </row>
-    <row r="106" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" ht="14.25" customHeight="1" spans="2:7">
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -1283,7 +1901,7 @@
       <c r="F106" s="3"/>
       <c r="G106" s="1"/>
     </row>
-    <row r="107" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" ht="14.25" customHeight="1" spans="2:7">
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -1291,7 +1909,7 @@
       <c r="F107" s="3"/>
       <c r="G107" s="1"/>
     </row>
-    <row r="108" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" ht="14.25" customHeight="1" spans="2:7">
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -1299,7 +1917,7 @@
       <c r="F108" s="3"/>
       <c r="G108" s="1"/>
     </row>
-    <row r="109" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" ht="14.25" customHeight="1" spans="2:7">
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -1307,7 +1925,7 @@
       <c r="F109" s="3"/>
       <c r="G109" s="1"/>
     </row>
-    <row r="110" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" ht="14.25" customHeight="1" spans="2:7">
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -1315,7 +1933,7 @@
       <c r="F110" s="3"/>
       <c r="G110" s="1"/>
     </row>
-    <row r="111" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" ht="14.25" customHeight="1" spans="2:7">
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -1323,7 +1941,7 @@
       <c r="F111" s="3"/>
       <c r="G111" s="1"/>
     </row>
-    <row r="112" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" ht="14.25" customHeight="1" spans="2:7">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -1331,7 +1949,7 @@
       <c r="F112" s="3"/>
       <c r="G112" s="1"/>
     </row>
-    <row r="113" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" ht="14.25" customHeight="1" spans="2:7">
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -1339,7 +1957,7 @@
       <c r="F113" s="3"/>
       <c r="G113" s="1"/>
     </row>
-    <row r="114" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" ht="14.25" customHeight="1" spans="2:7">
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -1347,7 +1965,7 @@
       <c r="F114" s="3"/>
       <c r="G114" s="1"/>
     </row>
-    <row r="115" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" ht="14.25" customHeight="1" spans="2:7">
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -1355,7 +1973,7 @@
       <c r="F115" s="3"/>
       <c r="G115" s="1"/>
     </row>
-    <row r="116" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" ht="14.25" customHeight="1" spans="2:7">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -1363,7 +1981,7 @@
       <c r="F116" s="3"/>
       <c r="G116" s="1"/>
     </row>
-    <row r="117" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" ht="14.25" customHeight="1" spans="2:7">
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -1371,7 +1989,7 @@
       <c r="F117" s="3"/>
       <c r="G117" s="1"/>
     </row>
-    <row r="118" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" ht="14.25" customHeight="1" spans="2:7">
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -1379,7 +1997,7 @@
       <c r="F118" s="3"/>
       <c r="G118" s="1"/>
     </row>
-    <row r="119" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" ht="14.25" customHeight="1" spans="2:7">
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -1387,7 +2005,7 @@
       <c r="F119" s="3"/>
       <c r="G119" s="1"/>
     </row>
-    <row r="120" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" ht="14.25" customHeight="1" spans="2:7">
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -1395,7 +2013,7 @@
       <c r="F120" s="3"/>
       <c r="G120" s="1"/>
     </row>
-    <row r="121" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" ht="14.25" customHeight="1" spans="2:7">
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
@@ -1403,7 +2021,7 @@
       <c r="F121" s="3"/>
       <c r="G121" s="1"/>
     </row>
-    <row r="122" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" ht="14.25" customHeight="1" spans="2:7">
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -1411,7 +2029,7 @@
       <c r="F122" s="3"/>
       <c r="G122" s="1"/>
     </row>
-    <row r="123" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" ht="14.25" customHeight="1" spans="2:7">
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -1419,7 +2037,7 @@
       <c r="F123" s="3"/>
       <c r="G123" s="1"/>
     </row>
-    <row r="124" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" ht="14.25" customHeight="1" spans="2:7">
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -1427,7 +2045,7 @@
       <c r="F124" s="3"/>
       <c r="G124" s="1"/>
     </row>
-    <row r="125" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" ht="14.25" customHeight="1" spans="2:7">
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
@@ -1435,7 +2053,7 @@
       <c r="F125" s="3"/>
       <c r="G125" s="1"/>
     </row>
-    <row r="126" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" ht="14.25" customHeight="1" spans="2:7">
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -1443,7 +2061,7 @@
       <c r="F126" s="3"/>
       <c r="G126" s="1"/>
     </row>
-    <row r="127" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" ht="14.25" customHeight="1" spans="2:7">
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
@@ -1451,7 +2069,7 @@
       <c r="F127" s="3"/>
       <c r="G127" s="1"/>
     </row>
-    <row r="128" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" ht="14.25" customHeight="1" spans="2:7">
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
@@ -1459,7 +2077,7 @@
       <c r="F128" s="3"/>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" ht="14.25" customHeight="1" spans="2:7">
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
@@ -1467,7 +2085,7 @@
       <c r="F129" s="3"/>
       <c r="G129" s="1"/>
     </row>
-    <row r="130" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" ht="14.25" customHeight="1" spans="2:7">
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
@@ -1475,7 +2093,7 @@
       <c r="F130" s="3"/>
       <c r="G130" s="1"/>
     </row>
-    <row r="131" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" ht="14.25" customHeight="1" spans="2:7">
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
@@ -1483,7 +2101,7 @@
       <c r="F131" s="3"/>
       <c r="G131" s="1"/>
     </row>
-    <row r="132" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" ht="14.25" customHeight="1" spans="2:7">
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
@@ -1491,7 +2109,7 @@
       <c r="F132" s="3"/>
       <c r="G132" s="1"/>
     </row>
-    <row r="133" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" ht="14.25" customHeight="1" spans="2:7">
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
@@ -1499,7 +2117,7 @@
       <c r="F133" s="3"/>
       <c r="G133" s="1"/>
     </row>
-    <row r="134" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" ht="14.25" customHeight="1" spans="2:7">
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
@@ -1507,7 +2125,7 @@
       <c r="F134" s="3"/>
       <c r="G134" s="1"/>
     </row>
-    <row r="135" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" ht="14.25" customHeight="1" spans="2:7">
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
@@ -1515,7 +2133,7 @@
       <c r="F135" s="3"/>
       <c r="G135" s="1"/>
     </row>
-    <row r="136" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" ht="14.25" customHeight="1" spans="2:7">
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
@@ -1523,7 +2141,7 @@
       <c r="F136" s="3"/>
       <c r="G136" s="1"/>
     </row>
-    <row r="137" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" ht="14.25" customHeight="1" spans="2:7">
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
@@ -1531,7 +2149,7 @@
       <c r="F137" s="3"/>
       <c r="G137" s="1"/>
     </row>
-    <row r="138" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" ht="14.25" customHeight="1" spans="2:7">
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
@@ -1539,7 +2157,7 @@
       <c r="F138" s="3"/>
       <c r="G138" s="1"/>
     </row>
-    <row r="139" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" ht="14.25" customHeight="1" spans="2:7">
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
@@ -1547,7 +2165,7 @@
       <c r="F139" s="3"/>
       <c r="G139" s="1"/>
     </row>
-    <row r="140" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" ht="14.25" customHeight="1" spans="2:7">
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
@@ -1555,7 +2173,7 @@
       <c r="F140" s="3"/>
       <c r="G140" s="1"/>
     </row>
-    <row r="141" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" ht="14.25" customHeight="1" spans="2:7">
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
@@ -1563,7 +2181,7 @@
       <c r="F141" s="3"/>
       <c r="G141" s="1"/>
     </row>
-    <row r="142" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" ht="14.25" customHeight="1" spans="2:7">
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
@@ -1571,7 +2189,7 @@
       <c r="F142" s="3"/>
       <c r="G142" s="1"/>
     </row>
-    <row r="143" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" ht="14.25" customHeight="1" spans="2:7">
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
@@ -1579,7 +2197,7 @@
       <c r="F143" s="3"/>
       <c r="G143" s="1"/>
     </row>
-    <row r="144" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" ht="14.25" customHeight="1" spans="2:7">
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
@@ -1587,7 +2205,7 @@
       <c r="F144" s="3"/>
       <c r="G144" s="1"/>
     </row>
-    <row r="145" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" ht="14.25" customHeight="1" spans="2:7">
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
@@ -1595,7 +2213,7 @@
       <c r="F145" s="3"/>
       <c r="G145" s="1"/>
     </row>
-    <row r="146" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" ht="14.25" customHeight="1" spans="2:7">
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
@@ -1603,7 +2221,7 @@
       <c r="F146" s="3"/>
       <c r="G146" s="1"/>
     </row>
-    <row r="147" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" ht="14.25" customHeight="1" spans="2:7">
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
@@ -1611,7 +2229,7 @@
       <c r="F147" s="3"/>
       <c r="G147" s="1"/>
     </row>
-    <row r="148" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" ht="14.25" customHeight="1" spans="2:7">
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -1619,7 +2237,7 @@
       <c r="F148" s="3"/>
       <c r="G148" s="1"/>
     </row>
-    <row r="149" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" ht="14.25" customHeight="1" spans="2:7">
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
@@ -1627,7 +2245,7 @@
       <c r="F149" s="3"/>
       <c r="G149" s="1"/>
     </row>
-    <row r="150" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" ht="14.25" customHeight="1" spans="2:7">
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
@@ -1635,7 +2253,7 @@
       <c r="F150" s="3"/>
       <c r="G150" s="1"/>
     </row>
-    <row r="151" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" ht="14.25" customHeight="1" spans="2:7">
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
@@ -1643,7 +2261,7 @@
       <c r="F151" s="3"/>
       <c r="G151" s="1"/>
     </row>
-    <row r="152" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" ht="14.25" customHeight="1" spans="2:7">
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
@@ -1651,7 +2269,7 @@
       <c r="F152" s="3"/>
       <c r="G152" s="1"/>
     </row>
-    <row r="153" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" ht="14.25" customHeight="1" spans="2:7">
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
@@ -1659,7 +2277,7 @@
       <c r="F153" s="3"/>
       <c r="G153" s="1"/>
     </row>
-    <row r="154" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" ht="14.25" customHeight="1" spans="2:7">
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -1667,7 +2285,7 @@
       <c r="F154" s="3"/>
       <c r="G154" s="1"/>
     </row>
-    <row r="155" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" ht="14.25" customHeight="1" spans="2:7">
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -1675,7 +2293,7 @@
       <c r="F155" s="3"/>
       <c r="G155" s="1"/>
     </row>
-    <row r="156" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" ht="14.25" customHeight="1" spans="2:7">
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -1683,7 +2301,7 @@
       <c r="F156" s="3"/>
       <c r="G156" s="1"/>
     </row>
-    <row r="157" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" ht="14.25" customHeight="1" spans="2:7">
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
@@ -1691,7 +2309,7 @@
       <c r="F157" s="3"/>
       <c r="G157" s="1"/>
     </row>
-    <row r="158" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" ht="14.25" customHeight="1" spans="2:7">
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
@@ -1699,7 +2317,7 @@
       <c r="F158" s="3"/>
       <c r="G158" s="1"/>
     </row>
-    <row r="159" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" ht="14.25" customHeight="1" spans="2:7">
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -1707,7 +2325,7 @@
       <c r="F159" s="3"/>
       <c r="G159" s="1"/>
     </row>
-    <row r="160" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" ht="14.25" customHeight="1" spans="2:7">
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
@@ -1715,7 +2333,7 @@
       <c r="F160" s="3"/>
       <c r="G160" s="1"/>
     </row>
-    <row r="161" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" ht="14.25" customHeight="1" spans="2:7">
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
@@ -1723,7 +2341,7 @@
       <c r="F161" s="3"/>
       <c r="G161" s="1"/>
     </row>
-    <row r="162" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" ht="14.25" customHeight="1" spans="2:7">
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
@@ -1731,7 +2349,7 @@
       <c r="F162" s="3"/>
       <c r="G162" s="1"/>
     </row>
-    <row r="163" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" ht="14.25" customHeight="1" spans="2:7">
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
@@ -1739,7 +2357,7 @@
       <c r="F163" s="3"/>
       <c r="G163" s="1"/>
     </row>
-    <row r="164" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" ht="14.25" customHeight="1" spans="2:7">
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
@@ -1747,7 +2365,7 @@
       <c r="F164" s="3"/>
       <c r="G164" s="1"/>
     </row>
-    <row r="165" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" ht="14.25" customHeight="1" spans="2:7">
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
@@ -1755,7 +2373,7 @@
       <c r="F165" s="3"/>
       <c r="G165" s="1"/>
     </row>
-    <row r="166" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" ht="14.25" customHeight="1" spans="2:7">
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
@@ -1763,7 +2381,7 @@
       <c r="F166" s="3"/>
       <c r="G166" s="1"/>
     </row>
-    <row r="167" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" ht="14.25" customHeight="1" spans="2:7">
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
@@ -1771,7 +2389,7 @@
       <c r="F167" s="3"/>
       <c r="G167" s="1"/>
     </row>
-    <row r="168" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" ht="14.25" customHeight="1" spans="2:7">
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
@@ -1779,7 +2397,7 @@
       <c r="F168" s="3"/>
       <c r="G168" s="1"/>
     </row>
-    <row r="169" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" ht="14.25" customHeight="1" spans="2:7">
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
@@ -1787,7 +2405,7 @@
       <c r="F169" s="3"/>
       <c r="G169" s="1"/>
     </row>
-    <row r="170" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" ht="14.25" customHeight="1" spans="2:7">
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
@@ -1795,7 +2413,7 @@
       <c r="F170" s="3"/>
       <c r="G170" s="1"/>
     </row>
-    <row r="171" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" ht="14.25" customHeight="1" spans="2:7">
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
@@ -1803,7 +2421,7 @@
       <c r="F171" s="3"/>
       <c r="G171" s="1"/>
     </row>
-    <row r="172" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" ht="14.25" customHeight="1" spans="2:7">
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
@@ -1811,7 +2429,7 @@
       <c r="F172" s="3"/>
       <c r="G172" s="1"/>
     </row>
-    <row r="173" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" ht="14.25" customHeight="1" spans="2:7">
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
@@ -1819,7 +2437,7 @@
       <c r="F173" s="3"/>
       <c r="G173" s="1"/>
     </row>
-    <row r="174" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" ht="14.25" customHeight="1" spans="2:7">
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
@@ -1827,7 +2445,7 @@
       <c r="F174" s="3"/>
       <c r="G174" s="1"/>
     </row>
-    <row r="175" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" ht="14.25" customHeight="1" spans="2:7">
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
@@ -1835,7 +2453,7 @@
       <c r="F175" s="3"/>
       <c r="G175" s="1"/>
     </row>
-    <row r="176" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" ht="14.25" customHeight="1" spans="2:7">
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
@@ -1843,7 +2461,7 @@
       <c r="F176" s="3"/>
       <c r="G176" s="1"/>
     </row>
-    <row r="177" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" ht="14.25" customHeight="1" spans="2:7">
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
@@ -1851,7 +2469,7 @@
       <c r="F177" s="3"/>
       <c r="G177" s="1"/>
     </row>
-    <row r="178" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" ht="14.25" customHeight="1" spans="2:7">
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
@@ -1859,7 +2477,7 @@
       <c r="F178" s="3"/>
       <c r="G178" s="1"/>
     </row>
-    <row r="179" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" ht="14.25" customHeight="1" spans="2:7">
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
@@ -1867,7 +2485,7 @@
       <c r="F179" s="3"/>
       <c r="G179" s="1"/>
     </row>
-    <row r="180" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" ht="14.25" customHeight="1" spans="2:7">
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
@@ -1875,7 +2493,7 @@
       <c r="F180" s="3"/>
       <c r="G180" s="1"/>
     </row>
-    <row r="181" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" ht="14.25" customHeight="1" spans="2:7">
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
@@ -1883,7 +2501,7 @@
       <c r="F181" s="3"/>
       <c r="G181" s="1"/>
     </row>
-    <row r="182" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" ht="14.25" customHeight="1" spans="2:7">
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
@@ -1891,7 +2509,7 @@
       <c r="F182" s="3"/>
       <c r="G182" s="1"/>
     </row>
-    <row r="183" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" ht="14.25" customHeight="1" spans="2:7">
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
@@ -1899,7 +2517,7 @@
       <c r="F183" s="3"/>
       <c r="G183" s="1"/>
     </row>
-    <row r="184" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" ht="14.25" customHeight="1" spans="2:7">
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
@@ -1907,7 +2525,7 @@
       <c r="F184" s="3"/>
       <c r="G184" s="1"/>
     </row>
-    <row r="185" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" ht="14.25" customHeight="1" spans="2:7">
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
@@ -1915,7 +2533,7 @@
       <c r="F185" s="3"/>
       <c r="G185" s="1"/>
     </row>
-    <row r="186" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" ht="14.25" customHeight="1" spans="2:7">
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
@@ -1923,7 +2541,7 @@
       <c r="F186" s="3"/>
       <c r="G186" s="1"/>
     </row>
-    <row r="187" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" ht="14.25" customHeight="1" spans="2:7">
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
@@ -1931,7 +2549,7 @@
       <c r="F187" s="3"/>
       <c r="G187" s="1"/>
     </row>
-    <row r="188" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" ht="14.25" customHeight="1" spans="2:7">
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
@@ -1939,7 +2557,7 @@
       <c r="F188" s="3"/>
       <c r="G188" s="1"/>
     </row>
-    <row r="189" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" ht="14.25" customHeight="1" spans="2:7">
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
@@ -1947,7 +2565,7 @@
       <c r="F189" s="3"/>
       <c r="G189" s="1"/>
     </row>
-    <row r="190" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" ht="14.25" customHeight="1" spans="2:7">
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
@@ -1955,7 +2573,7 @@
       <c r="F190" s="3"/>
       <c r="G190" s="1"/>
     </row>
-    <row r="191" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" ht="14.25" customHeight="1" spans="2:7">
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
@@ -1963,7 +2581,7 @@
       <c r="F191" s="3"/>
       <c r="G191" s="1"/>
     </row>
-    <row r="192" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" ht="14.25" customHeight="1" spans="2:7">
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
@@ -1971,7 +2589,7 @@
       <c r="F192" s="3"/>
       <c r="G192" s="1"/>
     </row>
-    <row r="193" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" ht="14.25" customHeight="1" spans="2:7">
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
@@ -1979,7 +2597,7 @@
       <c r="F193" s="3"/>
       <c r="G193" s="1"/>
     </row>
-    <row r="194" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" ht="14.25" customHeight="1" spans="2:7">
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
@@ -1987,7 +2605,7 @@
       <c r="F194" s="3"/>
       <c r="G194" s="1"/>
     </row>
-    <row r="195" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" ht="14.25" customHeight="1" spans="2:7">
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
@@ -1995,7 +2613,7 @@
       <c r="F195" s="3"/>
       <c r="G195" s="1"/>
     </row>
-    <row r="196" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" ht="14.25" customHeight="1" spans="2:7">
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
@@ -2003,7 +2621,7 @@
       <c r="F196" s="3"/>
       <c r="G196" s="1"/>
     </row>
-    <row r="197" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" ht="14.25" customHeight="1" spans="2:7">
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
@@ -2011,7 +2629,7 @@
       <c r="F197" s="3"/>
       <c r="G197" s="1"/>
     </row>
-    <row r="198" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" ht="14.25" customHeight="1" spans="2:7">
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
@@ -2019,7 +2637,7 @@
       <c r="F198" s="3"/>
       <c r="G198" s="1"/>
     </row>
-    <row r="199" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" ht="14.25" customHeight="1" spans="2:7">
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
@@ -2027,7 +2645,7 @@
       <c r="F199" s="3"/>
       <c r="G199" s="1"/>
     </row>
-    <row r="200" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" ht="14.25" customHeight="1" spans="2:7">
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
@@ -2035,7 +2653,7 @@
       <c r="F200" s="3"/>
       <c r="G200" s="1"/>
     </row>
-    <row r="201" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" ht="14.25" customHeight="1" spans="2:7">
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
@@ -2043,7 +2661,7 @@
       <c r="F201" s="3"/>
       <c r="G201" s="1"/>
     </row>
-    <row r="202" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" ht="14.25" customHeight="1" spans="2:7">
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
@@ -2051,7 +2669,7 @@
       <c r="F202" s="3"/>
       <c r="G202" s="1"/>
     </row>
-    <row r="203" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" ht="14.25" customHeight="1" spans="2:7">
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
@@ -2059,7 +2677,7 @@
       <c r="F203" s="3"/>
       <c r="G203" s="1"/>
     </row>
-    <row r="204" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" ht="14.25" customHeight="1" spans="2:7">
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
@@ -2067,7 +2685,7 @@
       <c r="F204" s="3"/>
       <c r="G204" s="1"/>
     </row>
-    <row r="205" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" ht="14.25" customHeight="1" spans="2:7">
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
@@ -2075,7 +2693,7 @@
       <c r="F205" s="3"/>
       <c r="G205" s="1"/>
     </row>
-    <row r="206" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" ht="14.25" customHeight="1" spans="2:7">
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
@@ -2083,7 +2701,7 @@
       <c r="F206" s="3"/>
       <c r="G206" s="1"/>
     </row>
-    <row r="207" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" ht="14.25" customHeight="1" spans="2:7">
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
@@ -2091,7 +2709,7 @@
       <c r="F207" s="3"/>
       <c r="G207" s="1"/>
     </row>
-    <row r="208" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" ht="14.25" customHeight="1" spans="2:7">
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
@@ -2099,7 +2717,7 @@
       <c r="F208" s="3"/>
       <c r="G208" s="1"/>
     </row>
-    <row r="209" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" ht="14.25" customHeight="1" spans="2:7">
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
@@ -2107,7 +2725,7 @@
       <c r="F209" s="3"/>
       <c r="G209" s="1"/>
     </row>
-    <row r="210" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" ht="14.25" customHeight="1" spans="2:7">
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
@@ -2115,7 +2733,7 @@
       <c r="F210" s="3"/>
       <c r="G210" s="1"/>
     </row>
-    <row r="211" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" ht="14.25" customHeight="1" spans="2:7">
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
@@ -2123,7 +2741,7 @@
       <c r="F211" s="3"/>
       <c r="G211" s="1"/>
     </row>
-    <row r="212" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" ht="14.25" customHeight="1" spans="2:7">
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
@@ -2131,7 +2749,7 @@
       <c r="F212" s="3"/>
       <c r="G212" s="1"/>
     </row>
-    <row r="213" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" ht="14.25" customHeight="1" spans="2:7">
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
@@ -2139,7 +2757,7 @@
       <c r="F213" s="3"/>
       <c r="G213" s="1"/>
     </row>
-    <row r="214" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" ht="14.25" customHeight="1" spans="2:7">
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
@@ -2147,7 +2765,7 @@
       <c r="F214" s="3"/>
       <c r="G214" s="1"/>
     </row>
-    <row r="215" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" ht="14.25" customHeight="1" spans="2:7">
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
@@ -2155,7 +2773,7 @@
       <c r="F215" s="3"/>
       <c r="G215" s="1"/>
     </row>
-    <row r="216" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" ht="14.25" customHeight="1" spans="2:7">
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
@@ -2163,7 +2781,7 @@
       <c r="F216" s="3"/>
       <c r="G216" s="1"/>
     </row>
-    <row r="217" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" ht="14.25" customHeight="1" spans="2:7">
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
@@ -2171,7 +2789,7 @@
       <c r="F217" s="3"/>
       <c r="G217" s="1"/>
     </row>
-    <row r="218" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" ht="14.25" customHeight="1" spans="2:7">
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
@@ -2179,7 +2797,7 @@
       <c r="F218" s="3"/>
       <c r="G218" s="1"/>
     </row>
-    <row r="219" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" ht="14.25" customHeight="1" spans="2:7">
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
@@ -2187,7 +2805,7 @@
       <c r="F219" s="3"/>
       <c r="G219" s="1"/>
     </row>
-    <row r="220" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" ht="14.25" customHeight="1" spans="2:7">
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
@@ -2195,7 +2813,7 @@
       <c r="F220" s="3"/>
       <c r="G220" s="1"/>
     </row>
-    <row r="221" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" ht="14.25" customHeight="1" spans="2:7">
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
@@ -2203,7 +2821,7 @@
       <c r="F221" s="3"/>
       <c r="G221" s="1"/>
     </row>
-    <row r="222" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" ht="14.25" customHeight="1" spans="2:7">
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
@@ -2211,7 +2829,7 @@
       <c r="F222" s="3"/>
       <c r="G222" s="1"/>
     </row>
-    <row r="223" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" ht="14.25" customHeight="1" spans="2:7">
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
@@ -2219,7 +2837,7 @@
       <c r="F223" s="3"/>
       <c r="G223" s="1"/>
     </row>
-    <row r="224" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" ht="14.25" customHeight="1" spans="2:7">
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
@@ -2227,7 +2845,7 @@
       <c r="F224" s="3"/>
       <c r="G224" s="1"/>
     </row>
-    <row r="225" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" ht="14.25" customHeight="1" spans="2:7">
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
@@ -2235,7 +2853,7 @@
       <c r="F225" s="3"/>
       <c r="G225" s="1"/>
     </row>
-    <row r="226" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" ht="14.25" customHeight="1" spans="2:7">
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
@@ -2243,7 +2861,7 @@
       <c r="F226" s="3"/>
       <c r="G226" s="1"/>
     </row>
-    <row r="227" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" ht="14.25" customHeight="1" spans="2:7">
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
@@ -2251,7 +2869,7 @@
       <c r="F227" s="3"/>
       <c r="G227" s="1"/>
     </row>
-    <row r="228" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" ht="14.25" customHeight="1" spans="2:7">
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
@@ -2259,7 +2877,7 @@
       <c r="F228" s="3"/>
       <c r="G228" s="1"/>
     </row>
-    <row r="229" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" ht="14.25" customHeight="1" spans="2:7">
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
@@ -2267,7 +2885,7 @@
       <c r="F229" s="3"/>
       <c r="G229" s="1"/>
     </row>
-    <row r="230" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" ht="14.25" customHeight="1" spans="2:7">
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
@@ -2275,7 +2893,7 @@
       <c r="F230" s="3"/>
       <c r="G230" s="1"/>
     </row>
-    <row r="231" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" ht="14.25" customHeight="1" spans="2:7">
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
@@ -2283,7 +2901,7 @@
       <c r="F231" s="3"/>
       <c r="G231" s="1"/>
     </row>
-    <row r="232" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" ht="14.25" customHeight="1" spans="2:7">
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
@@ -2291,7 +2909,7 @@
       <c r="F232" s="3"/>
       <c r="G232" s="1"/>
     </row>
-    <row r="233" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" ht="14.25" customHeight="1" spans="2:7">
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
@@ -2299,7 +2917,7 @@
       <c r="F233" s="3"/>
       <c r="G233" s="1"/>
     </row>
-    <row r="234" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" ht="14.25" customHeight="1" spans="2:7">
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
@@ -2307,7 +2925,7 @@
       <c r="F234" s="3"/>
       <c r="G234" s="1"/>
     </row>
-    <row r="235" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" ht="14.25" customHeight="1" spans="2:7">
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
@@ -2315,7 +2933,7 @@
       <c r="F235" s="3"/>
       <c r="G235" s="1"/>
     </row>
-    <row r="236" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" ht="14.25" customHeight="1" spans="2:7">
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
@@ -2323,7 +2941,7 @@
       <c r="F236" s="3"/>
       <c r="G236" s="1"/>
     </row>
-    <row r="237" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" ht="14.25" customHeight="1" spans="2:7">
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
@@ -2331,7 +2949,7 @@
       <c r="F237" s="3"/>
       <c r="G237" s="1"/>
     </row>
-    <row r="238" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" ht="14.25" customHeight="1" spans="2:7">
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
@@ -2339,7 +2957,7 @@
       <c r="F238" s="3"/>
       <c r="G238" s="1"/>
     </row>
-    <row r="239" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" ht="14.25" customHeight="1" spans="2:7">
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
@@ -2347,7 +2965,7 @@
       <c r="F239" s="3"/>
       <c r="G239" s="1"/>
     </row>
-    <row r="240" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" ht="14.25" customHeight="1" spans="2:7">
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
@@ -2355,7 +2973,7 @@
       <c r="F240" s="3"/>
       <c r="G240" s="1"/>
     </row>
-    <row r="241" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" ht="14.25" customHeight="1" spans="2:7">
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
@@ -2363,7 +2981,7 @@
       <c r="F241" s="3"/>
       <c r="G241" s="1"/>
     </row>
-    <row r="242" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" ht="14.25" customHeight="1" spans="2:7">
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
@@ -2371,7 +2989,7 @@
       <c r="F242" s="3"/>
       <c r="G242" s="1"/>
     </row>
-    <row r="243" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" ht="14.25" customHeight="1" spans="2:7">
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
@@ -2379,7 +2997,7 @@
       <c r="F243" s="3"/>
       <c r="G243" s="1"/>
     </row>
-    <row r="244" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" ht="14.25" customHeight="1" spans="2:7">
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
@@ -2387,7 +3005,7 @@
       <c r="F244" s="3"/>
       <c r="G244" s="1"/>
     </row>
-    <row r="245" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" ht="14.25" customHeight="1" spans="2:7">
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
@@ -2395,7 +3013,7 @@
       <c r="F245" s="3"/>
       <c r="G245" s="1"/>
     </row>
-    <row r="246" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" ht="14.25" customHeight="1" spans="2:7">
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
@@ -2403,7 +3021,7 @@
       <c r="F246" s="3"/>
       <c r="G246" s="1"/>
     </row>
-    <row r="247" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" ht="14.25" customHeight="1" spans="2:7">
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
@@ -2411,7 +3029,7 @@
       <c r="F247" s="3"/>
       <c r="G247" s="1"/>
     </row>
-    <row r="248" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" ht="14.25" customHeight="1" spans="2:7">
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
@@ -2419,7 +3037,7 @@
       <c r="F248" s="3"/>
       <c r="G248" s="1"/>
     </row>
-    <row r="249" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" ht="14.25" customHeight="1" spans="2:7">
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
@@ -2427,7 +3045,7 @@
       <c r="F249" s="3"/>
       <c r="G249" s="1"/>
     </row>
-    <row r="250" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" ht="14.25" customHeight="1" spans="2:7">
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
@@ -2435,7 +3053,7 @@
       <c r="F250" s="3"/>
       <c r="G250" s="1"/>
     </row>
-    <row r="251" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" ht="14.25" customHeight="1" spans="2:7">
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
@@ -2443,7 +3061,7 @@
       <c r="F251" s="3"/>
       <c r="G251" s="1"/>
     </row>
-    <row r="252" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" ht="14.25" customHeight="1" spans="2:7">
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
@@ -2451,7 +3069,7 @@
       <c r="F252" s="3"/>
       <c r="G252" s="1"/>
     </row>
-    <row r="253" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" ht="14.25" customHeight="1" spans="2:7">
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
@@ -2459,7 +3077,7 @@
       <c r="F253" s="3"/>
       <c r="G253" s="1"/>
     </row>
-    <row r="254" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" ht="14.25" customHeight="1" spans="2:7">
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
@@ -2467,7 +3085,7 @@
       <c r="F254" s="3"/>
       <c r="G254" s="1"/>
     </row>
-    <row r="255" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" ht="14.25" customHeight="1" spans="2:7">
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
@@ -2475,7 +3093,7 @@
       <c r="F255" s="3"/>
       <c r="G255" s="1"/>
     </row>
-    <row r="256" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" ht="14.25" customHeight="1" spans="2:7">
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
@@ -2483,7 +3101,7 @@
       <c r="F256" s="3"/>
       <c r="G256" s="1"/>
     </row>
-    <row r="257" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" ht="14.25" customHeight="1" spans="2:7">
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
@@ -2491,7 +3109,7 @@
       <c r="F257" s="3"/>
       <c r="G257" s="1"/>
     </row>
-    <row r="258" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" ht="14.25" customHeight="1" spans="2:7">
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
@@ -2499,7 +3117,7 @@
       <c r="F258" s="3"/>
       <c r="G258" s="1"/>
     </row>
-    <row r="259" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" ht="14.25" customHeight="1" spans="2:7">
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
@@ -2507,7 +3125,7 @@
       <c r="F259" s="3"/>
       <c r="G259" s="1"/>
     </row>
-    <row r="260" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" ht="14.25" customHeight="1" spans="2:7">
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
@@ -2515,7 +3133,7 @@
       <c r="F260" s="3"/>
       <c r="G260" s="1"/>
     </row>
-    <row r="261" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" ht="14.25" customHeight="1" spans="2:7">
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
@@ -2523,7 +3141,7 @@
       <c r="F261" s="3"/>
       <c r="G261" s="1"/>
     </row>
-    <row r="262" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" ht="14.25" customHeight="1" spans="2:7">
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
@@ -2531,7 +3149,7 @@
       <c r="F262" s="3"/>
       <c r="G262" s="1"/>
     </row>
-    <row r="263" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" ht="14.25" customHeight="1" spans="2:7">
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
@@ -2539,7 +3157,7 @@
       <c r="F263" s="3"/>
       <c r="G263" s="1"/>
     </row>
-    <row r="264" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" ht="14.25" customHeight="1" spans="2:7">
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
@@ -2547,7 +3165,7 @@
       <c r="F264" s="3"/>
       <c r="G264" s="1"/>
     </row>
-    <row r="266" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" ht="14.25" customHeight="1" spans="2:7">
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
@@ -2555,7 +3173,7 @@
       <c r="F266" s="3"/>
       <c r="G266" s="1"/>
     </row>
-    <row r="267" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" ht="14.25" customHeight="1" spans="2:7">
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
@@ -2563,7 +3181,7 @@
       <c r="F267" s="3"/>
       <c r="G267" s="1"/>
     </row>
-    <row r="268" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" ht="14.25" customHeight="1" spans="2:7">
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
@@ -2571,7 +3189,7 @@
       <c r="F268" s="3"/>
       <c r="G268" s="1"/>
     </row>
-    <row r="269" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" ht="14.25" customHeight="1" spans="2:7">
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
@@ -2579,7 +3197,7 @@
       <c r="F269" s="3"/>
       <c r="G269" s="1"/>
     </row>
-    <row r="270" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" ht="14.25" customHeight="1" spans="2:7">
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
@@ -2587,7 +3205,7 @@
       <c r="F270" s="3"/>
       <c r="G270" s="1"/>
     </row>
-    <row r="271" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" ht="14.25" customHeight="1" spans="2:7">
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
@@ -2595,7 +3213,7 @@
       <c r="F271" s="3"/>
       <c r="G271" s="1"/>
     </row>
-    <row r="272" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" ht="14.25" customHeight="1" spans="2:7">
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
@@ -2603,7 +3221,7 @@
       <c r="F272" s="3"/>
       <c r="G272" s="1"/>
     </row>
-    <row r="273" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" ht="14.25" customHeight="1" spans="2:7">
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
@@ -2611,7 +3229,7 @@
       <c r="F273" s="3"/>
       <c r="G273" s="1"/>
     </row>
-    <row r="274" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" ht="14.25" customHeight="1" spans="2:7">
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
@@ -2619,7 +3237,7 @@
       <c r="F274" s="3"/>
       <c r="G274" s="1"/>
     </row>
-    <row r="275" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" ht="14.25" customHeight="1" spans="2:7">
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
@@ -2627,7 +3245,7 @@
       <c r="F275" s="3"/>
       <c r="G275" s="1"/>
     </row>
-    <row r="276" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" ht="14.25" customHeight="1" spans="2:7">
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
@@ -2635,7 +3253,7 @@
       <c r="F276" s="3"/>
       <c r="G276" s="1"/>
     </row>
-    <row r="277" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" ht="14.25" customHeight="1" spans="2:7">
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
@@ -2643,7 +3261,7 @@
       <c r="F277" s="3"/>
       <c r="G277" s="1"/>
     </row>
-    <row r="278" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" ht="14.25" customHeight="1" spans="2:7">
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
@@ -2651,7 +3269,7 @@
       <c r="F278" s="3"/>
       <c r="G278" s="1"/>
     </row>
-    <row r="279" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" ht="14.25" customHeight="1" spans="2:7">
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
@@ -2659,7 +3277,7 @@
       <c r="F279" s="3"/>
       <c r="G279" s="1"/>
     </row>
-    <row r="280" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" ht="14.25" customHeight="1" spans="2:7">
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
@@ -2667,7 +3285,7 @@
       <c r="F280" s="3"/>
       <c r="G280" s="1"/>
     </row>
-    <row r="281" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" ht="14.25" customHeight="1" spans="2:7">
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
@@ -2675,7 +3293,7 @@
       <c r="F281" s="3"/>
       <c r="G281" s="1"/>
     </row>
-    <row r="282" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" ht="14.25" customHeight="1" spans="2:7">
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
@@ -2683,7 +3301,7 @@
       <c r="F282" s="3"/>
       <c r="G282" s="1"/>
     </row>
-    <row r="283" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" ht="14.25" customHeight="1" spans="2:7">
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
@@ -2691,7 +3309,7 @@
       <c r="F283" s="3"/>
       <c r="G283" s="1"/>
     </row>
-    <row r="284" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" ht="14.25" customHeight="1" spans="2:7">
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
@@ -2699,7 +3317,7 @@
       <c r="F284" s="3"/>
       <c r="G284" s="1"/>
     </row>
-    <row r="285" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" ht="14.25" customHeight="1" spans="2:7">
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
@@ -2707,7 +3325,7 @@
       <c r="F285" s="3"/>
       <c r="G285" s="1"/>
     </row>
-    <row r="286" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" ht="14.25" customHeight="1" spans="2:7">
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
@@ -2715,7 +3333,7 @@
       <c r="F286" s="3"/>
       <c r="G286" s="1"/>
     </row>
-    <row r="287" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" ht="14.25" customHeight="1" spans="2:7">
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
@@ -2723,7 +3341,7 @@
       <c r="F287" s="3"/>
       <c r="G287" s="1"/>
     </row>
-    <row r="288" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" ht="14.25" customHeight="1" spans="2:7">
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
@@ -2731,7 +3349,7 @@
       <c r="F288" s="3"/>
       <c r="G288" s="1"/>
     </row>
-    <row r="289" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" ht="14.25" customHeight="1" spans="2:7">
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
@@ -2739,7 +3357,7 @@
       <c r="F289" s="3"/>
       <c r="G289" s="1"/>
     </row>
-    <row r="290" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" ht="14.25" customHeight="1" spans="2:7">
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
@@ -2747,7 +3365,7 @@
       <c r="F290" s="3"/>
       <c r="G290" s="1"/>
     </row>
-    <row r="291" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" ht="14.25" customHeight="1" spans="2:7">
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
@@ -2755,7 +3373,7 @@
       <c r="F291" s="3"/>
       <c r="G291" s="1"/>
     </row>
-    <row r="292" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" ht="14.25" customHeight="1" spans="2:7">
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
@@ -2763,7 +3381,7 @@
       <c r="F292" s="3"/>
       <c r="G292" s="1"/>
     </row>
-    <row r="293" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" ht="14.25" customHeight="1" spans="2:7">
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
@@ -2771,7 +3389,7 @@
       <c r="F293" s="3"/>
       <c r="G293" s="1"/>
     </row>
-    <row r="294" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" ht="14.25" customHeight="1" spans="2:7">
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
@@ -2779,7 +3397,7 @@
       <c r="F294" s="3"/>
       <c r="G294" s="1"/>
     </row>
-    <row r="295" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" ht="14.25" customHeight="1" spans="2:7">
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
@@ -2787,7 +3405,7 @@
       <c r="F295" s="3"/>
       <c r="G295" s="1"/>
     </row>
-    <row r="296" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" ht="14.25" customHeight="1" spans="2:7">
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
@@ -2795,7 +3413,7 @@
       <c r="F296" s="3"/>
       <c r="G296" s="1"/>
     </row>
-    <row r="297" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" ht="14.25" customHeight="1" spans="2:7">
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
@@ -2803,7 +3421,7 @@
       <c r="F297" s="3"/>
       <c r="G297" s="1"/>
     </row>
-    <row r="298" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" ht="14.25" customHeight="1" spans="2:7">
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
@@ -2811,7 +3429,7 @@
       <c r="F298" s="3"/>
       <c r="G298" s="1"/>
     </row>
-    <row r="299" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" ht="14.25" customHeight="1" spans="2:7">
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
@@ -2819,7 +3437,7 @@
       <c r="F299" s="3"/>
       <c r="G299" s="1"/>
     </row>
-    <row r="300" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" ht="14.25" customHeight="1" spans="2:7">
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
@@ -2827,7 +3445,7 @@
       <c r="F300" s="3"/>
       <c r="G300" s="1"/>
     </row>
-    <row r="301" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" ht="14.25" customHeight="1" spans="2:7">
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
@@ -2835,7 +3453,7 @@
       <c r="F301" s="3"/>
       <c r="G301" s="1"/>
     </row>
-    <row r="302" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" ht="14.25" customHeight="1" spans="2:7">
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
       <c r="D302" s="2"/>
@@ -2843,7 +3461,7 @@
       <c r="F302" s="3"/>
       <c r="G302" s="1"/>
     </row>
-    <row r="303" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" ht="14.25" customHeight="1" spans="2:7">
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
@@ -2851,7 +3469,7 @@
       <c r="F303" s="3"/>
       <c r="G303" s="1"/>
     </row>
-    <row r="304" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" ht="14.25" customHeight="1" spans="2:7">
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
@@ -2859,7 +3477,7 @@
       <c r="F304" s="3"/>
       <c r="G304" s="1"/>
     </row>
-    <row r="305" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" ht="14.25" customHeight="1" spans="2:7">
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
@@ -2867,7 +3485,7 @@
       <c r="F305" s="3"/>
       <c r="G305" s="1"/>
     </row>
-    <row r="306" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" ht="14.25" customHeight="1" spans="2:7">
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
       <c r="D306" s="2"/>
@@ -2875,7 +3493,7 @@
       <c r="F306" s="3"/>
       <c r="G306" s="1"/>
     </row>
-    <row r="307" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" ht="14.25" customHeight="1" spans="2:7">
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
@@ -2883,7 +3501,7 @@
       <c r="F307" s="3"/>
       <c r="G307" s="1"/>
     </row>
-    <row r="308" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" ht="14.25" customHeight="1" spans="2:7">
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
@@ -2891,7 +3509,7 @@
       <c r="F308" s="3"/>
       <c r="G308" s="1"/>
     </row>
-    <row r="309" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" ht="14.25" customHeight="1" spans="2:7">
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
@@ -2899,7 +3517,7 @@
       <c r="F309" s="3"/>
       <c r="G309" s="1"/>
     </row>
-    <row r="310" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" ht="14.25" customHeight="1" spans="2:7">
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
@@ -2907,7 +3525,7 @@
       <c r="F310" s="3"/>
       <c r="G310" s="1"/>
     </row>
-    <row r="311" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" ht="14.25" customHeight="1" spans="2:7">
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
       <c r="D311" s="2"/>
@@ -2915,7 +3533,7 @@
       <c r="F311" s="3"/>
       <c r="G311" s="1"/>
     </row>
-    <row r="312" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" ht="14.25" customHeight="1" spans="2:7">
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
@@ -2923,7 +3541,7 @@
       <c r="F312" s="3"/>
       <c r="G312" s="1"/>
     </row>
-    <row r="313" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" ht="14.25" customHeight="1" spans="2:7">
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
       <c r="D313" s="2"/>
@@ -2931,7 +3549,7 @@
       <c r="F313" s="3"/>
       <c r="G313" s="1"/>
     </row>
-    <row r="314" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" ht="14.25" customHeight="1" spans="2:7">
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
@@ -2939,7 +3557,7 @@
       <c r="F314" s="3"/>
       <c r="G314" s="1"/>
     </row>
-    <row r="315" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" ht="14.25" customHeight="1" spans="2:7">
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
       <c r="D315" s="2"/>
@@ -2947,7 +3565,7 @@
       <c r="F315" s="3"/>
       <c r="G315" s="1"/>
     </row>
-    <row r="316" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" ht="14.25" customHeight="1" spans="2:7">
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
@@ -2955,7 +3573,7 @@
       <c r="F316" s="3"/>
       <c r="G316" s="1"/>
     </row>
-    <row r="317" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" ht="14.25" customHeight="1" spans="2:7">
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
@@ -2963,7 +3581,7 @@
       <c r="F317" s="3"/>
       <c r="G317" s="1"/>
     </row>
-    <row r="318" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" ht="14.25" customHeight="1" spans="2:7">
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
@@ -2971,7 +3589,7 @@
       <c r="F318" s="3"/>
       <c r="G318" s="1"/>
     </row>
-    <row r="319" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" ht="14.25" customHeight="1" spans="2:7">
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
@@ -2979,7 +3597,7 @@
       <c r="F319" s="3"/>
       <c r="G319" s="1"/>
     </row>
-    <row r="320" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" ht="14.25" customHeight="1" spans="2:7">
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
@@ -2987,7 +3605,7 @@
       <c r="F320" s="3"/>
       <c r="G320" s="1"/>
     </row>
-    <row r="321" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" ht="14.25" customHeight="1" spans="2:7">
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
@@ -2995,7 +3613,7 @@
       <c r="F321" s="3"/>
       <c r="G321" s="1"/>
     </row>
-    <row r="322" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" ht="14.25" customHeight="1" spans="2:7">
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
@@ -3003,7 +3621,7 @@
       <c r="F322" s="3"/>
       <c r="G322" s="1"/>
     </row>
-    <row r="323" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" ht="14.25" customHeight="1" spans="2:7">
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
@@ -3011,7 +3629,7 @@
       <c r="F323" s="3"/>
       <c r="G323" s="1"/>
     </row>
-    <row r="324" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" ht="14.25" customHeight="1" spans="2:7">
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
@@ -3019,7 +3637,7 @@
       <c r="F324" s="3"/>
       <c r="G324" s="1"/>
     </row>
-    <row r="325" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" ht="14.25" customHeight="1" spans="2:7">
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
@@ -3027,7 +3645,7 @@
       <c r="F325" s="3"/>
       <c r="G325" s="1"/>
     </row>
-    <row r="326" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" ht="14.25" customHeight="1" spans="2:7">
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
@@ -3035,7 +3653,7 @@
       <c r="F326" s="3"/>
       <c r="G326" s="1"/>
     </row>
-    <row r="327" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" ht="14.25" customHeight="1" spans="2:7">
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
@@ -3043,7 +3661,7 @@
       <c r="F327" s="3"/>
       <c r="G327" s="1"/>
     </row>
-    <row r="328" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" ht="14.25" customHeight="1" spans="2:7">
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
@@ -3051,7 +3669,7 @@
       <c r="F328" s="3"/>
       <c r="G328" s="1"/>
     </row>
-    <row r="329" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" ht="14.25" customHeight="1" spans="2:7">
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
       <c r="D329" s="2"/>
@@ -3059,7 +3677,7 @@
       <c r="F329" s="3"/>
       <c r="G329" s="1"/>
     </row>
-    <row r="330" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" ht="14.25" customHeight="1" spans="2:7">
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
@@ -3067,7 +3685,7 @@
       <c r="F330" s="3"/>
       <c r="G330" s="1"/>
     </row>
-    <row r="331" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" ht="14.25" customHeight="1" spans="2:7">
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
@@ -3075,7 +3693,7 @@
       <c r="F331" s="3"/>
       <c r="G331" s="1"/>
     </row>
-    <row r="332" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" ht="14.25" customHeight="1" spans="2:7">
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
       <c r="D332" s="2"/>
@@ -3083,7 +3701,7 @@
       <c r="F332" s="3"/>
       <c r="G332" s="1"/>
     </row>
-    <row r="333" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" ht="14.25" customHeight="1" spans="2:7">
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
@@ -3091,7 +3709,7 @@
       <c r="F333" s="3"/>
       <c r="G333" s="1"/>
     </row>
-    <row r="334" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" ht="14.25" customHeight="1" spans="2:7">
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
       <c r="D334" s="2"/>
@@ -3099,7 +3717,7 @@
       <c r="F334" s="3"/>
       <c r="G334" s="1"/>
     </row>
-    <row r="335" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" ht="14.25" customHeight="1" spans="2:7">
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
@@ -3107,7 +3725,7 @@
       <c r="F335" s="3"/>
       <c r="G335" s="1"/>
     </row>
-    <row r="336" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" ht="14.25" customHeight="1" spans="2:7">
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
       <c r="D336" s="2"/>
@@ -3115,7 +3733,7 @@
       <c r="F336" s="3"/>
       <c r="G336" s="1"/>
     </row>
-    <row r="337" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" ht="14.25" customHeight="1" spans="2:7">
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
       <c r="D337" s="2"/>
@@ -3123,7 +3741,7 @@
       <c r="F337" s="3"/>
       <c r="G337" s="1"/>
     </row>
-    <row r="338" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" ht="14.25" customHeight="1" spans="2:7">
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
       <c r="D338" s="2"/>
@@ -3131,7 +3749,7 @@
       <c r="F338" s="3"/>
       <c r="G338" s="1"/>
     </row>
-    <row r="339" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" ht="14.25" customHeight="1" spans="2:7">
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
@@ -3139,7 +3757,7 @@
       <c r="F339" s="3"/>
       <c r="G339" s="1"/>
     </row>
-    <row r="340" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" ht="14.25" customHeight="1" spans="2:7">
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
       <c r="D340" s="2"/>
@@ -3147,7 +3765,7 @@
       <c r="F340" s="3"/>
       <c r="G340" s="1"/>
     </row>
-    <row r="341" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" ht="14.25" customHeight="1" spans="2:7">
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
       <c r="D341" s="2"/>
@@ -3155,7 +3773,7 @@
       <c r="F341" s="3"/>
       <c r="G341" s="1"/>
     </row>
-    <row r="342" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" ht="14.25" customHeight="1" spans="2:7">
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
       <c r="D342" s="2"/>
@@ -3163,7 +3781,7 @@
       <c r="F342" s="3"/>
       <c r="G342" s="1"/>
     </row>
-    <row r="343" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" ht="14.25" customHeight="1" spans="2:7">
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
       <c r="D343" s="2"/>
@@ -3171,7 +3789,7 @@
       <c r="F343" s="3"/>
       <c r="G343" s="1"/>
     </row>
-    <row r="344" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" ht="14.25" customHeight="1" spans="2:7">
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
       <c r="D344" s="2"/>
@@ -3179,7 +3797,7 @@
       <c r="F344" s="3"/>
       <c r="G344" s="1"/>
     </row>
-    <row r="345" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" ht="14.25" customHeight="1" spans="2:7">
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
       <c r="D345" s="2"/>
@@ -3187,7 +3805,7 @@
       <c r="F345" s="3"/>
       <c r="G345" s="1"/>
     </row>
-    <row r="346" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" ht="14.25" customHeight="1" spans="2:7">
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
@@ -3195,7 +3813,7 @@
       <c r="F346" s="3"/>
       <c r="G346" s="1"/>
     </row>
-    <row r="347" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" ht="14.25" customHeight="1" spans="2:7">
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
       <c r="D347" s="2"/>
@@ -3203,7 +3821,7 @@
       <c r="F347" s="3"/>
       <c r="G347" s="1"/>
     </row>
-    <row r="348" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" ht="14.25" customHeight="1" spans="2:7">
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
       <c r="D348" s="2"/>
@@ -3211,7 +3829,7 @@
       <c r="F348" s="3"/>
       <c r="G348" s="1"/>
     </row>
-    <row r="349" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" ht="14.25" customHeight="1" spans="2:7">
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
       <c r="D349" s="2"/>
@@ -3219,7 +3837,7 @@
       <c r="F349" s="3"/>
       <c r="G349" s="1"/>
     </row>
-    <row r="350" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" ht="14.25" customHeight="1" spans="2:7">
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
@@ -3227,7 +3845,7 @@
       <c r="F350" s="3"/>
       <c r="G350" s="1"/>
     </row>
-    <row r="351" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" ht="14.25" customHeight="1" spans="2:7">
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
@@ -3235,7 +3853,7 @@
       <c r="F351" s="3"/>
       <c r="G351" s="1"/>
     </row>
-    <row r="352" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" ht="14.25" customHeight="1" spans="2:7">
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
@@ -3243,7 +3861,7 @@
       <c r="F352" s="3"/>
       <c r="G352" s="1"/>
     </row>
-    <row r="353" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" ht="14.25" customHeight="1" spans="2:7">
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
@@ -3251,7 +3869,7 @@
       <c r="F353" s="3"/>
       <c r="G353" s="1"/>
     </row>
-    <row r="354" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" ht="14.25" customHeight="1" spans="2:7">
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
       <c r="D354" s="2"/>
@@ -3259,7 +3877,7 @@
       <c r="F354" s="3"/>
       <c r="G354" s="1"/>
     </row>
-    <row r="355" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" ht="14.25" customHeight="1" spans="2:7">
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
       <c r="D355" s="2"/>
@@ -3267,7 +3885,7 @@
       <c r="F355" s="3"/>
       <c r="G355" s="1"/>
     </row>
-    <row r="356" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" ht="14.25" customHeight="1" spans="2:7">
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
       <c r="D356" s="2"/>
@@ -3275,7 +3893,7 @@
       <c r="F356" s="3"/>
       <c r="G356" s="1"/>
     </row>
-    <row r="357" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" ht="14.25" customHeight="1" spans="2:7">
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
@@ -3283,7 +3901,7 @@
       <c r="F357" s="3"/>
       <c r="G357" s="1"/>
     </row>
-    <row r="358" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" ht="14.25" customHeight="1" spans="2:7">
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
@@ -3291,7 +3909,7 @@
       <c r="F358" s="3"/>
       <c r="G358" s="1"/>
     </row>
-    <row r="359" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" ht="14.25" customHeight="1" spans="2:7">
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
       <c r="D359" s="2"/>
@@ -3299,7 +3917,7 @@
       <c r="F359" s="3"/>
       <c r="G359" s="1"/>
     </row>
-    <row r="360" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" ht="14.25" customHeight="1" spans="2:7">
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
       <c r="D360" s="2"/>
@@ -3307,7 +3925,7 @@
       <c r="F360" s="3"/>
       <c r="G360" s="1"/>
     </row>
-    <row r="361" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" ht="14.25" customHeight="1" spans="2:7">
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
@@ -3315,7 +3933,7 @@
       <c r="F361" s="3"/>
       <c r="G361" s="1"/>
     </row>
-    <row r="362" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" ht="14.25" customHeight="1" spans="2:7">
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
@@ -3323,7 +3941,7 @@
       <c r="F362" s="3"/>
       <c r="G362" s="1"/>
     </row>
-    <row r="363" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" ht="14.25" customHeight="1" spans="2:7">
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
       <c r="D363" s="2"/>
@@ -3331,7 +3949,7 @@
       <c r="F363" s="3"/>
       <c r="G363" s="1"/>
     </row>
-    <row r="364" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" ht="14.25" customHeight="1" spans="2:7">
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
       <c r="D364" s="2"/>
@@ -3339,7 +3957,7 @@
       <c r="F364" s="3"/>
       <c r="G364" s="1"/>
     </row>
-    <row r="365" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" ht="14.25" customHeight="1" spans="2:7">
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
       <c r="D365" s="2"/>
@@ -3347,7 +3965,7 @@
       <c r="F365" s="3"/>
       <c r="G365" s="1"/>
     </row>
-    <row r="366" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" ht="14.25" customHeight="1" spans="2:7">
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
@@ -3355,7 +3973,7 @@
       <c r="F366" s="3"/>
       <c r="G366" s="1"/>
     </row>
-    <row r="367" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" ht="14.25" customHeight="1" spans="2:7">
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
@@ -3363,7 +3981,7 @@
       <c r="F367" s="3"/>
       <c r="G367" s="1"/>
     </row>
-    <row r="368" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" ht="14.25" customHeight="1" spans="2:7">
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
       <c r="D368" s="2"/>
@@ -3371,7 +3989,7 @@
       <c r="F368" s="3"/>
       <c r="G368" s="1"/>
     </row>
-    <row r="369" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" ht="14.25" customHeight="1" spans="2:7">
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
       <c r="D369" s="2"/>
@@ -3379,7 +3997,7 @@
       <c r="F369" s="3"/>
       <c r="G369" s="1"/>
     </row>
-    <row r="370" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" ht="14.25" customHeight="1" spans="2:7">
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
       <c r="D370" s="2"/>
@@ -3387,7 +4005,7 @@
       <c r="F370" s="3"/>
       <c r="G370" s="1"/>
     </row>
-    <row r="371" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" ht="14.25" customHeight="1" spans="2:7">
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
       <c r="D371" s="2"/>
@@ -3395,7 +4013,7 @@
       <c r="F371" s="3"/>
       <c r="G371" s="1"/>
     </row>
-    <row r="372" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" ht="14.25" customHeight="1" spans="2:7">
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
@@ -3403,7 +4021,7 @@
       <c r="F372" s="3"/>
       <c r="G372" s="1"/>
     </row>
-    <row r="373" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" ht="14.25" customHeight="1" spans="2:7">
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
       <c r="D373" s="2"/>
@@ -3411,7 +4029,7 @@
       <c r="F373" s="3"/>
       <c r="G373" s="1"/>
     </row>
-    <row r="374" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" ht="14.25" customHeight="1" spans="2:7">
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
@@ -3419,7 +4037,7 @@
       <c r="F374" s="3"/>
       <c r="G374" s="1"/>
     </row>
-    <row r="375" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" ht="14.25" customHeight="1" spans="2:7">
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
@@ -3427,7 +4045,7 @@
       <c r="F375" s="3"/>
       <c r="G375" s="1"/>
     </row>
-    <row r="376" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" ht="14.25" customHeight="1" spans="2:7">
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
       <c r="D376" s="2"/>
@@ -3435,7 +4053,7 @@
       <c r="F376" s="3"/>
       <c r="G376" s="1"/>
     </row>
-    <row r="377" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" ht="14.25" customHeight="1" spans="2:7">
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
       <c r="D377" s="2"/>
@@ -3443,7 +4061,7 @@
       <c r="F377" s="3"/>
       <c r="G377" s="1"/>
     </row>
-    <row r="378" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" ht="14.25" customHeight="1" spans="2:7">
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
       <c r="D378" s="2"/>
@@ -3451,7 +4069,7 @@
       <c r="F378" s="3"/>
       <c r="G378" s="1"/>
     </row>
-    <row r="379" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" ht="14.25" customHeight="1" spans="2:7">
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
@@ -3459,7 +4077,7 @@
       <c r="F379" s="3"/>
       <c r="G379" s="1"/>
     </row>
-    <row r="380" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" ht="14.25" customHeight="1" spans="2:7">
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
       <c r="D380" s="2"/>
@@ -3467,7 +4085,7 @@
       <c r="F380" s="3"/>
       <c r="G380" s="1"/>
     </row>
-    <row r="381" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" ht="14.25" customHeight="1" spans="2:7">
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
       <c r="D381" s="2"/>
@@ -3475,7 +4093,7 @@
       <c r="F381" s="3"/>
       <c r="G381" s="1"/>
     </row>
-    <row r="382" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" ht="14.25" customHeight="1" spans="2:7">
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
       <c r="D382" s="2"/>
@@ -3483,7 +4101,7 @@
       <c r="F382" s="3"/>
       <c r="G382" s="1"/>
     </row>
-    <row r="383" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" ht="14.25" customHeight="1" spans="2:7">
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
       <c r="D383" s="2"/>
@@ -3491,7 +4109,7 @@
       <c r="F383" s="3"/>
       <c r="G383" s="1"/>
     </row>
-    <row r="384" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" ht="14.25" customHeight="1" spans="2:7">
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
       <c r="D384" s="2"/>
@@ -3499,7 +4117,7 @@
       <c r="F384" s="3"/>
       <c r="G384" s="1"/>
     </row>
-    <row r="385" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" ht="14.25" customHeight="1" spans="2:7">
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
       <c r="D385" s="2"/>
@@ -3507,7 +4125,7 @@
       <c r="F385" s="3"/>
       <c r="G385" s="1"/>
     </row>
-    <row r="386" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" ht="14.25" customHeight="1" spans="2:7">
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
       <c r="D386" s="2"/>
@@ -3515,7 +4133,7 @@
       <c r="F386" s="3"/>
       <c r="G386" s="1"/>
     </row>
-    <row r="387" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" ht="14.25" customHeight="1" spans="2:7">
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
       <c r="D387" s="2"/>
@@ -3523,7 +4141,7 @@
       <c r="F387" s="3"/>
       <c r="G387" s="1"/>
     </row>
-    <row r="388" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" ht="14.25" customHeight="1" spans="2:7">
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
       <c r="D388" s="2"/>
@@ -3531,7 +4149,7 @@
       <c r="F388" s="3"/>
       <c r="G388" s="1"/>
     </row>
-    <row r="389" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" ht="14.25" customHeight="1" spans="2:7">
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
       <c r="D389" s="2"/>
@@ -3539,7 +4157,7 @@
       <c r="F389" s="3"/>
       <c r="G389" s="1"/>
     </row>
-    <row r="390" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" ht="14.25" customHeight="1" spans="2:7">
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
       <c r="D390" s="2"/>
@@ -3547,7 +4165,7 @@
       <c r="F390" s="3"/>
       <c r="G390" s="1"/>
     </row>
-    <row r="391" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" ht="14.25" customHeight="1" spans="2:7">
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
       <c r="D391" s="2"/>
@@ -3555,7 +4173,7 @@
       <c r="F391" s="3"/>
       <c r="G391" s="1"/>
     </row>
-    <row r="392" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" ht="14.25" customHeight="1" spans="2:7">
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
       <c r="D392" s="2"/>
@@ -3563,7 +4181,7 @@
       <c r="F392" s="3"/>
       <c r="G392" s="1"/>
     </row>
-    <row r="393" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" ht="14.25" customHeight="1" spans="2:7">
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
       <c r="D393" s="2"/>
@@ -3571,7 +4189,7 @@
       <c r="F393" s="3"/>
       <c r="G393" s="1"/>
     </row>
-    <row r="394" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" ht="14.25" customHeight="1" spans="2:7">
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
       <c r="D394" s="2"/>
@@ -3579,7 +4197,7 @@
       <c r="F394" s="3"/>
       <c r="G394" s="1"/>
     </row>
-    <row r="395" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" ht="14.25" customHeight="1" spans="2:7">
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
       <c r="D395" s="2"/>
@@ -3587,7 +4205,7 @@
       <c r="F395" s="3"/>
       <c r="G395" s="1"/>
     </row>
-    <row r="396" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" ht="14.25" customHeight="1" spans="2:7">
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
       <c r="D396" s="2"/>
@@ -3595,7 +4213,7 @@
       <c r="F396" s="3"/>
       <c r="G396" s="1"/>
     </row>
-    <row r="397" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" ht="14.25" customHeight="1" spans="2:7">
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
       <c r="D397" s="2"/>
@@ -3603,7 +4221,7 @@
       <c r="F397" s="3"/>
       <c r="G397" s="1"/>
     </row>
-    <row r="398" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" ht="14.25" customHeight="1" spans="2:7">
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
       <c r="D398" s="2"/>
@@ -3611,7 +4229,7 @@
       <c r="F398" s="3"/>
       <c r="G398" s="1"/>
     </row>
-    <row r="399" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" ht="14.25" customHeight="1" spans="2:7">
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
       <c r="D399" s="2"/>
@@ -3619,7 +4237,7 @@
       <c r="F399" s="3"/>
       <c r="G399" s="1"/>
     </row>
-    <row r="400" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" ht="14.25" customHeight="1" spans="2:7">
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
       <c r="D400" s="2"/>
@@ -3627,7 +4245,7 @@
       <c r="F400" s="3"/>
       <c r="G400" s="1"/>
     </row>
-    <row r="401" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" ht="14.25" customHeight="1" spans="2:7">
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
       <c r="D401" s="2"/>
@@ -3635,7 +4253,7 @@
       <c r="F401" s="3"/>
       <c r="G401" s="1"/>
     </row>
-    <row r="402" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" ht="14.25" customHeight="1" spans="2:7">
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
       <c r="D402" s="2"/>
@@ -3643,7 +4261,7 @@
       <c r="F402" s="3"/>
       <c r="G402" s="1"/>
     </row>
-    <row r="403" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" ht="14.25" customHeight="1" spans="2:7">
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
       <c r="D403" s="2"/>
@@ -3651,7 +4269,7 @@
       <c r="F403" s="3"/>
       <c r="G403" s="1"/>
     </row>
-    <row r="404" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" ht="14.25" customHeight="1" spans="2:7">
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
@@ -3659,7 +4277,7 @@
       <c r="F404" s="3"/>
       <c r="G404" s="1"/>
     </row>
-    <row r="405" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" ht="14.25" customHeight="1" spans="2:7">
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
       <c r="D405" s="2"/>
@@ -3667,7 +4285,7 @@
       <c r="F405" s="3"/>
       <c r="G405" s="1"/>
     </row>
-    <row r="406" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" ht="14.25" customHeight="1" spans="2:7">
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
       <c r="D406" s="2"/>
@@ -3675,7 +4293,7 @@
       <c r="F406" s="3"/>
       <c r="G406" s="1"/>
     </row>
-    <row r="407" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" ht="14.25" customHeight="1" spans="2:7">
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
@@ -3683,7 +4301,7 @@
       <c r="F407" s="3"/>
       <c r="G407" s="1"/>
     </row>
-    <row r="408" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" ht="14.25" customHeight="1" spans="2:7">
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
       <c r="D408" s="2"/>
@@ -3691,7 +4309,7 @@
       <c r="F408" s="3"/>
       <c r="G408" s="1"/>
     </row>
-    <row r="409" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" ht="14.25" customHeight="1" spans="2:7">
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
       <c r="D409" s="2"/>
@@ -3699,7 +4317,7 @@
       <c r="F409" s="3"/>
       <c r="G409" s="1"/>
     </row>
-    <row r="410" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" ht="14.25" customHeight="1" spans="2:7">
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
       <c r="D410" s="2"/>
@@ -3707,7 +4325,7 @@
       <c r="F410" s="3"/>
       <c r="G410" s="1"/>
     </row>
-    <row r="411" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" ht="14.25" customHeight="1" spans="2:7">
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
       <c r="D411" s="2"/>
@@ -3715,7 +4333,7 @@
       <c r="F411" s="3"/>
       <c r="G411" s="1"/>
     </row>
-    <row r="412" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" ht="14.25" customHeight="1" spans="2:7">
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
       <c r="D412" s="2"/>
@@ -3723,7 +4341,7 @@
       <c r="F412" s="3"/>
       <c r="G412" s="1"/>
     </row>
-    <row r="413" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" ht="14.25" customHeight="1" spans="2:7">
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
       <c r="D413" s="2"/>
@@ -3731,7 +4349,7 @@
       <c r="F413" s="3"/>
       <c r="G413" s="1"/>
     </row>
-    <row r="414" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" ht="14.25" customHeight="1" spans="2:7">
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
       <c r="D414" s="2"/>
@@ -3739,7 +4357,7 @@
       <c r="F414" s="3"/>
       <c r="G414" s="1"/>
     </row>
-    <row r="415" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" ht="14.25" customHeight="1" spans="2:7">
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
       <c r="D415" s="2"/>
@@ -3747,7 +4365,7 @@
       <c r="F415" s="3"/>
       <c r="G415" s="1"/>
     </row>
-    <row r="416" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" ht="14.25" customHeight="1" spans="2:7">
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
       <c r="D416" s="2"/>
@@ -3755,7 +4373,7 @@
       <c r="F416" s="3"/>
       <c r="G416" s="1"/>
     </row>
-    <row r="417" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" ht="14.25" customHeight="1" spans="2:7">
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
       <c r="D417" s="2"/>
@@ -3763,7 +4381,7 @@
       <c r="F417" s="3"/>
       <c r="G417" s="1"/>
     </row>
-    <row r="418" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" ht="14.25" customHeight="1" spans="2:7">
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
       <c r="D418" s="2"/>
@@ -3771,7 +4389,7 @@
       <c r="F418" s="3"/>
       <c r="G418" s="1"/>
     </row>
-    <row r="419" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" ht="14.25" customHeight="1" spans="2:7">
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
       <c r="D419" s="2"/>
@@ -3779,7 +4397,7 @@
       <c r="F419" s="3"/>
       <c r="G419" s="1"/>
     </row>
-    <row r="420" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" ht="14.25" customHeight="1" spans="2:7">
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
       <c r="D420" s="2"/>
@@ -3787,7 +4405,7 @@
       <c r="F420" s="3"/>
       <c r="G420" s="1"/>
     </row>
-    <row r="421" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" ht="14.25" customHeight="1" spans="2:7">
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>
@@ -3795,7 +4413,7 @@
       <c r="F421" s="3"/>
       <c r="G421" s="1"/>
     </row>
-    <row r="422" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" ht="14.25" customHeight="1" spans="2:7">
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
       <c r="D422" s="2"/>
@@ -3803,7 +4421,7 @@
       <c r="F422" s="3"/>
       <c r="G422" s="1"/>
     </row>
-    <row r="423" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" ht="14.25" customHeight="1" spans="2:7">
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
       <c r="D423" s="2"/>
@@ -3811,7 +4429,7 @@
       <c r="F423" s="3"/>
       <c r="G423" s="1"/>
     </row>
-    <row r="424" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" ht="14.25" customHeight="1" spans="2:7">
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
       <c r="D424" s="2"/>
@@ -3819,7 +4437,7 @@
       <c r="F424" s="3"/>
       <c r="G424" s="1"/>
     </row>
-    <row r="425" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" ht="14.25" customHeight="1" spans="2:7">
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
       <c r="D425" s="2"/>
@@ -3827,7 +4445,7 @@
       <c r="F425" s="3"/>
       <c r="G425" s="1"/>
     </row>
-    <row r="426" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" ht="14.25" customHeight="1" spans="2:7">
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
       <c r="D426" s="2"/>
@@ -3835,7 +4453,7 @@
       <c r="F426" s="3"/>
       <c r="G426" s="1"/>
     </row>
-    <row r="427" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" ht="14.25" customHeight="1" spans="2:7">
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
       <c r="D427" s="2"/>
@@ -3843,7 +4461,7 @@
       <c r="F427" s="3"/>
       <c r="G427" s="1"/>
     </row>
-    <row r="428" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" ht="14.25" customHeight="1" spans="2:7">
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
       <c r="D428" s="2"/>
@@ -3851,7 +4469,7 @@
       <c r="F428" s="3"/>
       <c r="G428" s="1"/>
     </row>
-    <row r="429" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" ht="14.25" customHeight="1" spans="2:7">
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
       <c r="D429" s="2"/>
@@ -3859,7 +4477,7 @@
       <c r="F429" s="3"/>
       <c r="G429" s="1"/>
     </row>
-    <row r="430" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" ht="14.25" customHeight="1" spans="2:7">
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
       <c r="D430" s="2"/>
@@ -3867,7 +4485,7 @@
       <c r="F430" s="3"/>
       <c r="G430" s="1"/>
     </row>
-    <row r="431" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" ht="14.25" customHeight="1" spans="2:7">
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
       <c r="D431" s="2"/>
@@ -3875,7 +4493,7 @@
       <c r="F431" s="3"/>
       <c r="G431" s="1"/>
     </row>
-    <row r="432" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" ht="14.25" customHeight="1" spans="2:7">
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
       <c r="D432" s="2"/>
@@ -3883,7 +4501,7 @@
       <c r="F432" s="3"/>
       <c r="G432" s="1"/>
     </row>
-    <row r="433" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" ht="14.25" customHeight="1" spans="2:7">
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
       <c r="D433" s="2"/>
@@ -3891,7 +4509,7 @@
       <c r="F433" s="3"/>
       <c r="G433" s="1"/>
     </row>
-    <row r="434" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" ht="14.25" customHeight="1" spans="2:7">
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
       <c r="D434" s="2"/>
@@ -3899,7 +4517,7 @@
       <c r="F434" s="3"/>
       <c r="G434" s="1"/>
     </row>
-    <row r="435" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" ht="14.25" customHeight="1" spans="2:7">
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
       <c r="D435" s="2"/>
@@ -3907,7 +4525,7 @@
       <c r="F435" s="3"/>
       <c r="G435" s="1"/>
     </row>
-    <row r="436" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" ht="14.25" customHeight="1" spans="2:7">
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
       <c r="D436" s="2"/>
@@ -3915,7 +4533,7 @@
       <c r="F436" s="3"/>
       <c r="G436" s="1"/>
     </row>
-    <row r="437" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" ht="14.25" customHeight="1" spans="2:7">
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
       <c r="D437" s="2"/>
@@ -3923,7 +4541,7 @@
       <c r="F437" s="3"/>
       <c r="G437" s="1"/>
     </row>
-    <row r="438" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" ht="14.25" customHeight="1" spans="2:7">
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
       <c r="D438" s="2"/>
@@ -3931,7 +4549,7 @@
       <c r="F438" s="3"/>
       <c r="G438" s="1"/>
     </row>
-    <row r="439" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" ht="14.25" customHeight="1" spans="2:7">
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
       <c r="D439" s="2"/>
@@ -3939,7 +4557,7 @@
       <c r="F439" s="3"/>
       <c r="G439" s="1"/>
     </row>
-    <row r="440" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" ht="14.25" customHeight="1" spans="2:7">
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
       <c r="D440" s="2"/>
@@ -3947,7 +4565,7 @@
       <c r="F440" s="3"/>
       <c r="G440" s="1"/>
     </row>
-    <row r="441" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" ht="14.25" customHeight="1" spans="2:7">
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
       <c r="D441" s="2"/>
@@ -3955,7 +4573,7 @@
       <c r="F441" s="3"/>
       <c r="G441" s="1"/>
     </row>
-    <row r="442" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" ht="14.25" customHeight="1" spans="2:7">
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
       <c r="D442" s="2"/>
@@ -3963,7 +4581,7 @@
       <c r="F442" s="3"/>
       <c r="G442" s="1"/>
     </row>
-    <row r="443" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" ht="14.25" customHeight="1" spans="2:7">
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
       <c r="D443" s="2"/>
@@ -3971,7 +4589,7 @@
       <c r="F443" s="3"/>
       <c r="G443" s="1"/>
     </row>
-    <row r="444" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" ht="14.25" customHeight="1" spans="2:7">
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
       <c r="D444" s="2"/>
@@ -3979,7 +4597,7 @@
       <c r="F444" s="3"/>
       <c r="G444" s="1"/>
     </row>
-    <row r="445" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" ht="14.25" customHeight="1" spans="2:7">
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
       <c r="D445" s="2"/>
@@ -3987,7 +4605,7 @@
       <c r="F445" s="3"/>
       <c r="G445" s="1"/>
     </row>
-    <row r="446" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" ht="14.25" customHeight="1" spans="2:7">
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
       <c r="D446" s="2"/>
@@ -3995,7 +4613,7 @@
       <c r="F446" s="3"/>
       <c r="G446" s="1"/>
     </row>
-    <row r="447" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" ht="14.25" customHeight="1" spans="2:7">
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
       <c r="D447" s="2"/>
@@ -4003,7 +4621,7 @@
       <c r="F447" s="3"/>
       <c r="G447" s="1"/>
     </row>
-    <row r="448" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" ht="14.25" customHeight="1" spans="2:7">
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
       <c r="D448" s="2"/>
@@ -4011,7 +4629,7 @@
       <c r="F448" s="3"/>
       <c r="G448" s="1"/>
     </row>
-    <row r="449" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" ht="14.25" customHeight="1" spans="2:7">
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
       <c r="D449" s="2"/>
@@ -4019,7 +4637,7 @@
       <c r="F449" s="3"/>
       <c r="G449" s="1"/>
     </row>
-    <row r="450" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" ht="14.25" customHeight="1" spans="2:7">
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
       <c r="D450" s="2"/>
@@ -4027,7 +4645,7 @@
       <c r="F450" s="3"/>
       <c r="G450" s="1"/>
     </row>
-    <row r="451" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" ht="14.25" customHeight="1" spans="2:7">
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
       <c r="D451" s="2"/>
@@ -4035,7 +4653,7 @@
       <c r="F451" s="3"/>
       <c r="G451" s="1"/>
     </row>
-    <row r="452" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" ht="14.25" customHeight="1" spans="2:7">
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
       <c r="D452" s="2"/>
@@ -4043,7 +4661,7 @@
       <c r="F452" s="3"/>
       <c r="G452" s="1"/>
     </row>
-    <row r="453" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" ht="14.25" customHeight="1" spans="2:7">
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
       <c r="D453" s="2"/>
@@ -4051,7 +4669,7 @@
       <c r="F453" s="3"/>
       <c r="G453" s="1"/>
     </row>
-    <row r="454" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" ht="14.25" customHeight="1" spans="2:7">
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
       <c r="D454" s="2"/>
@@ -4059,7 +4677,7 @@
       <c r="F454" s="3"/>
       <c r="G454" s="1"/>
     </row>
-    <row r="455" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" ht="14.25" customHeight="1" spans="2:7">
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
       <c r="D455" s="2"/>
@@ -4067,7 +4685,7 @@
       <c r="F455" s="3"/>
       <c r="G455" s="1"/>
     </row>
-    <row r="456" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" ht="14.25" customHeight="1" spans="2:7">
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
       <c r="D456" s="2"/>
@@ -4075,7 +4693,7 @@
       <c r="F456" s="3"/>
       <c r="G456" s="1"/>
     </row>
-    <row r="457" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" ht="14.25" customHeight="1" spans="2:7">
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
       <c r="D457" s="2"/>
@@ -4083,7 +4701,7 @@
       <c r="F457" s="3"/>
       <c r="G457" s="1"/>
     </row>
-    <row r="458" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" ht="14.25" customHeight="1" spans="2:7">
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
       <c r="D458" s="2"/>
@@ -4091,7 +4709,7 @@
       <c r="F458" s="3"/>
       <c r="G458" s="1"/>
     </row>
-    <row r="459" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" ht="14.25" customHeight="1" spans="2:7">
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
       <c r="D459" s="2"/>
@@ -4099,7 +4717,7 @@
       <c r="F459" s="3"/>
       <c r="G459" s="1"/>
     </row>
-    <row r="460" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" ht="14.25" customHeight="1" spans="2:7">
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
       <c r="D460" s="2"/>
@@ -4107,7 +4725,7 @@
       <c r="F460" s="3"/>
       <c r="G460" s="1"/>
     </row>
-    <row r="461" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" ht="14.25" customHeight="1" spans="2:7">
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
       <c r="D461" s="2"/>
@@ -4115,7 +4733,7 @@
       <c r="F461" s="3"/>
       <c r="G461" s="1"/>
     </row>
-    <row r="462" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" ht="14.25" customHeight="1" spans="2:7">
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
       <c r="D462" s="2"/>
@@ -4123,7 +4741,7 @@
       <c r="F462" s="3"/>
       <c r="G462" s="1"/>
     </row>
-    <row r="463" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" ht="14.25" customHeight="1" spans="2:7">
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
       <c r="D463" s="2"/>
@@ -4131,7 +4749,7 @@
       <c r="F463" s="3"/>
       <c r="G463" s="1"/>
     </row>
-    <row r="464" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" ht="14.25" customHeight="1" spans="2:7">
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
       <c r="D464" s="2"/>
@@ -4139,7 +4757,7 @@
       <c r="F464" s="3"/>
       <c r="G464" s="1"/>
     </row>
-    <row r="465" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" ht="14.25" customHeight="1" spans="2:7">
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
       <c r="D465" s="2"/>
@@ -4147,7 +4765,7 @@
       <c r="F465" s="3"/>
       <c r="G465" s="1"/>
     </row>
-    <row r="466" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" ht="14.25" customHeight="1" spans="2:7">
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
       <c r="D466" s="2"/>
@@ -4155,7 +4773,7 @@
       <c r="F466" s="3"/>
       <c r="G466" s="1"/>
     </row>
-    <row r="467" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" ht="14.25" customHeight="1" spans="2:7">
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
       <c r="D467" s="2"/>
@@ -4163,7 +4781,7 @@
       <c r="F467" s="3"/>
       <c r="G467" s="1"/>
     </row>
-    <row r="468" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" ht="14.25" customHeight="1" spans="2:7">
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
       <c r="D468" s="2"/>
@@ -4171,7 +4789,7 @@
       <c r="F468" s="3"/>
       <c r="G468" s="1"/>
     </row>
-    <row r="469" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" ht="14.25" customHeight="1" spans="2:7">
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
       <c r="D469" s="2"/>
@@ -4179,7 +4797,7 @@
       <c r="F469" s="3"/>
       <c r="G469" s="1"/>
     </row>
-    <row r="470" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" ht="14.25" customHeight="1" spans="2:7">
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
       <c r="D470" s="2"/>
@@ -4187,7 +4805,7 @@
       <c r="F470" s="3"/>
       <c r="G470" s="1"/>
     </row>
-    <row r="471" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" ht="14.25" customHeight="1" spans="2:7">
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
       <c r="D471" s="2"/>
@@ -4195,7 +4813,7 @@
       <c r="F471" s="3"/>
       <c r="G471" s="1"/>
     </row>
-    <row r="472" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" ht="14.25" customHeight="1" spans="2:7">
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
       <c r="D472" s="2"/>
@@ -4203,7 +4821,7 @@
       <c r="F472" s="3"/>
       <c r="G472" s="1"/>
     </row>
-    <row r="473" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" ht="14.25" customHeight="1" spans="2:7">
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
       <c r="D473" s="2"/>
@@ -4211,7 +4829,7 @@
       <c r="F473" s="3"/>
       <c r="G473" s="1"/>
     </row>
-    <row r="474" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" ht="14.25" customHeight="1" spans="2:7">
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
       <c r="D474" s="2"/>
@@ -4219,7 +4837,7 @@
       <c r="F474" s="3"/>
       <c r="G474" s="1"/>
     </row>
-    <row r="475" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" ht="14.25" customHeight="1" spans="2:7">
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
       <c r="D475" s="2"/>
@@ -4227,7 +4845,7 @@
       <c r="F475" s="3"/>
       <c r="G475" s="1"/>
     </row>
-    <row r="476" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" ht="14.25" customHeight="1" spans="2:7">
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
       <c r="D476" s="2"/>
@@ -4235,7 +4853,7 @@
       <c r="F476" s="3"/>
       <c r="G476" s="1"/>
     </row>
-    <row r="477" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" ht="14.25" customHeight="1" spans="2:7">
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
       <c r="D477" s="2"/>
@@ -4243,7 +4861,7 @@
       <c r="F477" s="3"/>
       <c r="G477" s="1"/>
     </row>
-    <row r="478" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" ht="14.25" customHeight="1" spans="2:7">
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
       <c r="D478" s="2"/>
@@ -4251,7 +4869,7 @@
       <c r="F478" s="3"/>
       <c r="G478" s="1"/>
     </row>
-    <row r="479" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" ht="14.25" customHeight="1" spans="2:7">
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
       <c r="D479" s="2"/>
@@ -4259,7 +4877,7 @@
       <c r="F479" s="3"/>
       <c r="G479" s="1"/>
     </row>
-    <row r="480" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" ht="14.25" customHeight="1" spans="2:7">
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
       <c r="D480" s="2"/>
@@ -4267,7 +4885,7 @@
       <c r="F480" s="3"/>
       <c r="G480" s="1"/>
     </row>
-    <row r="481" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" ht="14.25" customHeight="1" spans="2:7">
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
       <c r="D481" s="2"/>
@@ -4275,7 +4893,7 @@
       <c r="F481" s="3"/>
       <c r="G481" s="1"/>
     </row>
-    <row r="482" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" ht="14.25" customHeight="1" spans="2:7">
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
       <c r="D482" s="2"/>
@@ -4283,7 +4901,7 @@
       <c r="F482" s="3"/>
       <c r="G482" s="1"/>
     </row>
-    <row r="483" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" ht="14.25" customHeight="1" spans="2:7">
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
       <c r="D483" s="2"/>
@@ -4291,7 +4909,7 @@
       <c r="F483" s="3"/>
       <c r="G483" s="1"/>
     </row>
-    <row r="484" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" ht="14.25" customHeight="1" spans="2:7">
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
       <c r="D484" s="2"/>
@@ -4299,7 +4917,7 @@
       <c r="F484" s="3"/>
       <c r="G484" s="1"/>
     </row>
-    <row r="485" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" ht="14.25" customHeight="1" spans="2:7">
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
       <c r="D485" s="2"/>
@@ -4307,7 +4925,7 @@
       <c r="F485" s="3"/>
       <c r="G485" s="1"/>
     </row>
-    <row r="486" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" ht="14.25" customHeight="1" spans="2:7">
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
       <c r="D486" s="2"/>
@@ -4315,7 +4933,7 @@
       <c r="F486" s="3"/>
       <c r="G486" s="1"/>
     </row>
-    <row r="487" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" ht="14.25" customHeight="1" spans="2:7">
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
       <c r="D487" s="2"/>
@@ -4323,7 +4941,7 @@
       <c r="F487" s="3"/>
       <c r="G487" s="1"/>
     </row>
-    <row r="488" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" ht="14.25" customHeight="1" spans="2:7">
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
       <c r="D488" s="2"/>
@@ -4331,7 +4949,7 @@
       <c r="F488" s="3"/>
       <c r="G488" s="1"/>
     </row>
-    <row r="489" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" ht="14.25" customHeight="1" spans="2:7">
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
       <c r="D489" s="2"/>
@@ -4339,7 +4957,7 @@
       <c r="F489" s="3"/>
       <c r="G489" s="1"/>
     </row>
-    <row r="490" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" ht="14.25" customHeight="1" spans="2:7">
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
       <c r="D490" s="2"/>
@@ -4347,7 +4965,7 @@
       <c r="F490" s="3"/>
       <c r="G490" s="1"/>
     </row>
-    <row r="491" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" ht="14.25" customHeight="1" spans="2:7">
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
       <c r="D491" s="2"/>
@@ -4355,7 +4973,7 @@
       <c r="F491" s="3"/>
       <c r="G491" s="1"/>
     </row>
-    <row r="492" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" ht="14.25" customHeight="1" spans="2:7">
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
       <c r="D492" s="2"/>
@@ -4363,7 +4981,7 @@
       <c r="F492" s="3"/>
       <c r="G492" s="1"/>
     </row>
-    <row r="493" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" ht="14.25" customHeight="1" spans="2:7">
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
       <c r="D493" s="2"/>
@@ -4371,7 +4989,7 @@
       <c r="F493" s="3"/>
       <c r="G493" s="1"/>
     </row>
-    <row r="494" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" ht="14.25" customHeight="1" spans="2:7">
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
       <c r="D494" s="2"/>
@@ -4379,7 +4997,7 @@
       <c r="F494" s="3"/>
       <c r="G494" s="1"/>
     </row>
-    <row r="495" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" ht="14.25" customHeight="1" spans="2:7">
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
       <c r="D495" s="2"/>
@@ -4387,7 +5005,7 @@
       <c r="F495" s="3"/>
       <c r="G495" s="1"/>
     </row>
-    <row r="496" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" ht="14.25" customHeight="1" spans="2:7">
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
       <c r="D496" s="2"/>
@@ -4395,7 +5013,7 @@
       <c r="F496" s="3"/>
       <c r="G496" s="1"/>
     </row>
-    <row r="497" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" ht="14.25" customHeight="1" spans="2:7">
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
       <c r="D497" s="2"/>
@@ -4403,7 +5021,7 @@
       <c r="F497" s="3"/>
       <c r="G497" s="1"/>
     </row>
-    <row r="498" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" ht="14.25" customHeight="1" spans="2:7">
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
       <c r="D498" s="2"/>
@@ -4411,7 +5029,7 @@
       <c r="F498" s="3"/>
       <c r="G498" s="1"/>
     </row>
-    <row r="499" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" ht="14.25" customHeight="1" spans="2:7">
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
       <c r="D499" s="2"/>
@@ -4419,7 +5037,7 @@
       <c r="F499" s="3"/>
       <c r="G499" s="1"/>
     </row>
-    <row r="500" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" ht="14.25" customHeight="1" spans="2:7">
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
       <c r="D500" s="2"/>
@@ -4427,7 +5045,7 @@
       <c r="F500" s="3"/>
       <c r="G500" s="1"/>
     </row>
-    <row r="501" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" ht="14.25" customHeight="1" spans="2:7">
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
       <c r="D501" s="2"/>
@@ -4435,7 +5053,7 @@
       <c r="F501" s="3"/>
       <c r="G501" s="1"/>
     </row>
-    <row r="502" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" ht="14.25" customHeight="1" spans="2:7">
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
       <c r="D502" s="2"/>
@@ -4443,7 +5061,7 @@
       <c r="F502" s="3"/>
       <c r="G502" s="1"/>
     </row>
-    <row r="503" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" ht="14.25" customHeight="1" spans="2:7">
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
       <c r="D503" s="2"/>
@@ -4451,7 +5069,7 @@
       <c r="F503" s="3"/>
       <c r="G503" s="1"/>
     </row>
-    <row r="504" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" ht="14.25" customHeight="1" spans="2:7">
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
       <c r="D504" s="2"/>
@@ -4459,7 +5077,7 @@
       <c r="F504" s="3"/>
       <c r="G504" s="1"/>
     </row>
-    <row r="505" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" ht="14.25" customHeight="1" spans="2:7">
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
       <c r="D505" s="2"/>
@@ -4467,7 +5085,7 @@
       <c r="F505" s="3"/>
       <c r="G505" s="1"/>
     </row>
-    <row r="506" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" ht="14.25" customHeight="1" spans="2:7">
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
       <c r="D506" s="2"/>
@@ -4475,7 +5093,7 @@
       <c r="F506" s="3"/>
       <c r="G506" s="1"/>
     </row>
-    <row r="507" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" ht="14.25" customHeight="1" spans="2:7">
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
       <c r="D507" s="2"/>
@@ -4483,7 +5101,7 @@
       <c r="F507" s="3"/>
       <c r="G507" s="1"/>
     </row>
-    <row r="508" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" ht="14.25" customHeight="1" spans="2:7">
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
       <c r="D508" s="2"/>
@@ -4491,7 +5109,7 @@
       <c r="F508" s="3"/>
       <c r="G508" s="1"/>
     </row>
-    <row r="509" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" ht="14.25" customHeight="1" spans="2:7">
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
       <c r="D509" s="2"/>
@@ -4499,7 +5117,7 @@
       <c r="F509" s="3"/>
       <c r="G509" s="1"/>
     </row>
-    <row r="510" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" ht="14.25" customHeight="1" spans="2:7">
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
       <c r="D510" s="2"/>
@@ -4507,7 +5125,7 @@
       <c r="F510" s="3"/>
       <c r="G510" s="1"/>
     </row>
-    <row r="511" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" ht="14.25" customHeight="1" spans="2:7">
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
       <c r="D511" s="2"/>
@@ -4515,7 +5133,7 @@
       <c r="F511" s="3"/>
       <c r="G511" s="1"/>
     </row>
-    <row r="512" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" ht="14.25" customHeight="1" spans="2:7">
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
       <c r="D512" s="2"/>
@@ -4523,7 +5141,7 @@
       <c r="F512" s="3"/>
       <c r="G512" s="1"/>
     </row>
-    <row r="513" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" ht="14.25" customHeight="1" spans="2:7">
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
       <c r="D513" s="2"/>
@@ -4531,7 +5149,7 @@
       <c r="F513" s="3"/>
       <c r="G513" s="1"/>
     </row>
-    <row r="514" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" ht="14.25" customHeight="1" spans="2:7">
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
       <c r="D514" s="2"/>
@@ -4539,7 +5157,7 @@
       <c r="F514" s="3"/>
       <c r="G514" s="1"/>
     </row>
-    <row r="515" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" ht="14.25" customHeight="1" spans="2:7">
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
       <c r="D515" s="2"/>
@@ -4547,7 +5165,7 @@
       <c r="F515" s="3"/>
       <c r="G515" s="1"/>
     </row>
-    <row r="516" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" ht="14.25" customHeight="1" spans="2:7">
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
       <c r="D516" s="2"/>
@@ -4555,7 +5173,7 @@
       <c r="F516" s="3"/>
       <c r="G516" s="1"/>
     </row>
-    <row r="517" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" ht="14.25" customHeight="1" spans="2:7">
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
       <c r="D517" s="2"/>
@@ -4563,7 +5181,7 @@
       <c r="F517" s="3"/>
       <c r="G517" s="1"/>
     </row>
-    <row r="518" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" ht="14.25" customHeight="1" spans="2:7">
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
       <c r="D518" s="2"/>
@@ -4571,7 +5189,7 @@
       <c r="F518" s="3"/>
       <c r="G518" s="1"/>
     </row>
-    <row r="519" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" ht="14.25" customHeight="1" spans="2:7">
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
       <c r="D519" s="2"/>
@@ -4579,7 +5197,7 @@
       <c r="F519" s="3"/>
       <c r="G519" s="1"/>
     </row>
-    <row r="520" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" ht="14.25" customHeight="1" spans="2:7">
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
       <c r="D520" s="2"/>
@@ -4587,7 +5205,7 @@
       <c r="F520" s="3"/>
       <c r="G520" s="1"/>
     </row>
-    <row r="521" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" ht="14.25" customHeight="1" spans="2:7">
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
       <c r="D521" s="2"/>
@@ -4595,7 +5213,7 @@
       <c r="F521" s="3"/>
       <c r="G521" s="1"/>
     </row>
-    <row r="522" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" ht="14.25" customHeight="1" spans="2:7">
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
       <c r="D522" s="2"/>
@@ -4603,7 +5221,7 @@
       <c r="F522" s="3"/>
       <c r="G522" s="1"/>
     </row>
-    <row r="523" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" ht="14.25" customHeight="1" spans="2:7">
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
       <c r="D523" s="2"/>
@@ -4611,7 +5229,7 @@
       <c r="F523" s="3"/>
       <c r="G523" s="1"/>
     </row>
-    <row r="524" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" ht="14.25" customHeight="1" spans="2:7">
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
       <c r="D524" s="2"/>
@@ -4619,7 +5237,7 @@
       <c r="F524" s="3"/>
       <c r="G524" s="1"/>
     </row>
-    <row r="525" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" ht="14.25" customHeight="1" spans="2:7">
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
       <c r="D525" s="2"/>
@@ -4627,7 +5245,7 @@
       <c r="F525" s="3"/>
       <c r="G525" s="1"/>
     </row>
-    <row r="526" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" ht="14.25" customHeight="1" spans="2:7">
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
       <c r="D526" s="2"/>
@@ -4635,7 +5253,7 @@
       <c r="F526" s="3"/>
       <c r="G526" s="1"/>
     </row>
-    <row r="527" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" ht="14.25" customHeight="1" spans="2:7">
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
       <c r="D527" s="2"/>
@@ -4643,7 +5261,7 @@
       <c r="F527" s="3"/>
       <c r="G527" s="1"/>
     </row>
-    <row r="528" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" ht="14.25" customHeight="1" spans="2:7">
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
       <c r="D528" s="2"/>
@@ -4651,7 +5269,7 @@
       <c r="F528" s="3"/>
       <c r="G528" s="1"/>
     </row>
-    <row r="529" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" ht="14.25" customHeight="1" spans="2:7">
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
       <c r="D529" s="2"/>
@@ -4659,7 +5277,7 @@
       <c r="F529" s="3"/>
       <c r="G529" s="1"/>
     </row>
-    <row r="530" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" ht="14.25" customHeight="1" spans="2:7">
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
       <c r="D530" s="2"/>
@@ -4667,7 +5285,7 @@
       <c r="F530" s="3"/>
       <c r="G530" s="1"/>
     </row>
-    <row r="531" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" ht="14.25" customHeight="1" spans="2:7">
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
       <c r="D531" s="2"/>
@@ -4675,7 +5293,7 @@
       <c r="F531" s="3"/>
       <c r="G531" s="1"/>
     </row>
-    <row r="532" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" ht="14.25" customHeight="1" spans="2:7">
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
       <c r="D532" s="2"/>
@@ -4683,7 +5301,7 @@
       <c r="F532" s="3"/>
       <c r="G532" s="1"/>
     </row>
-    <row r="533" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" ht="14.25" customHeight="1" spans="2:7">
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
       <c r="D533" s="2"/>
@@ -4691,7 +5309,7 @@
       <c r="F533" s="3"/>
       <c r="G533" s="1"/>
     </row>
-    <row r="534" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" ht="14.25" customHeight="1" spans="2:7">
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
       <c r="D534" s="2"/>
@@ -4699,7 +5317,7 @@
       <c r="F534" s="3"/>
       <c r="G534" s="1"/>
     </row>
-    <row r="535" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" ht="14.25" customHeight="1" spans="2:7">
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
       <c r="D535" s="2"/>
@@ -4707,7 +5325,7 @@
       <c r="F535" s="3"/>
       <c r="G535" s="1"/>
     </row>
-    <row r="536" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" ht="14.25" customHeight="1" spans="2:7">
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
       <c r="D536" s="2"/>
@@ -4715,7 +5333,7 @@
       <c r="F536" s="3"/>
       <c r="G536" s="1"/>
     </row>
-    <row r="537" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" ht="14.25" customHeight="1" spans="2:7">
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
       <c r="D537" s="2"/>
@@ -4723,7 +5341,7 @@
       <c r="F537" s="3"/>
       <c r="G537" s="1"/>
     </row>
-    <row r="538" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" ht="14.25" customHeight="1" spans="2:7">
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
       <c r="D538" s="2"/>
@@ -4731,7 +5349,7 @@
       <c r="F538" s="3"/>
       <c r="G538" s="1"/>
     </row>
-    <row r="539" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" ht="14.25" customHeight="1" spans="2:7">
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
       <c r="D539" s="2"/>
@@ -4739,7 +5357,7 @@
       <c r="F539" s="3"/>
       <c r="G539" s="1"/>
     </row>
-    <row r="540" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" ht="14.25" customHeight="1" spans="2:7">
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
       <c r="D540" s="2"/>
@@ -4747,7 +5365,7 @@
       <c r="F540" s="3"/>
       <c r="G540" s="1"/>
     </row>
-    <row r="541" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" ht="14.25" customHeight="1" spans="2:7">
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
       <c r="D541" s="2"/>
@@ -4755,7 +5373,7 @@
       <c r="F541" s="3"/>
       <c r="G541" s="1"/>
     </row>
-    <row r="542" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" ht="14.25" customHeight="1" spans="2:7">
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
       <c r="D542" s="2"/>
@@ -4763,7 +5381,7 @@
       <c r="F542" s="3"/>
       <c r="G542" s="1"/>
     </row>
-    <row r="543" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" ht="14.25" customHeight="1" spans="2:7">
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
       <c r="D543" s="2"/>
@@ -4771,7 +5389,7 @@
       <c r="F543" s="3"/>
       <c r="G543" s="1"/>
     </row>
-    <row r="544" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" ht="14.25" customHeight="1" spans="2:7">
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
       <c r="D544" s="2"/>
@@ -4779,7 +5397,7 @@
       <c r="F544" s="3"/>
       <c r="G544" s="1"/>
     </row>
-    <row r="545" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" ht="14.25" customHeight="1" spans="2:7">
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
       <c r="D545" s="2"/>
@@ -4787,7 +5405,7 @@
       <c r="F545" s="3"/>
       <c r="G545" s="1"/>
     </row>
-    <row r="546" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" ht="14.25" customHeight="1" spans="2:7">
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
       <c r="D546" s="2"/>
@@ -4795,7 +5413,7 @@
       <c r="F546" s="3"/>
       <c r="G546" s="1"/>
     </row>
-    <row r="547" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" ht="14.25" customHeight="1" spans="2:7">
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
       <c r="D547" s="2"/>
@@ -4803,7 +5421,7 @@
       <c r="F547" s="3"/>
       <c r="G547" s="1"/>
     </row>
-    <row r="548" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" ht="14.25" customHeight="1" spans="2:7">
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
       <c r="D548" s="2"/>
@@ -4811,7 +5429,7 @@
       <c r="F548" s="3"/>
       <c r="G548" s="1"/>
     </row>
-    <row r="549" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" ht="14.25" customHeight="1" spans="2:7">
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
       <c r="D549" s="2"/>
@@ -4819,7 +5437,7 @@
       <c r="F549" s="3"/>
       <c r="G549" s="1"/>
     </row>
-    <row r="550" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" ht="14.25" customHeight="1" spans="2:7">
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
       <c r="D550" s="2"/>
@@ -4827,7 +5445,7 @@
       <c r="F550" s="3"/>
       <c r="G550" s="1"/>
     </row>
-    <row r="551" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" ht="14.25" customHeight="1" spans="2:7">
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
       <c r="D551" s="2"/>
@@ -4835,7 +5453,7 @@
       <c r="F551" s="3"/>
       <c r="G551" s="1"/>
     </row>
-    <row r="552" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" ht="14.25" customHeight="1" spans="2:7">
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
       <c r="D552" s="2"/>
@@ -4843,7 +5461,7 @@
       <c r="F552" s="3"/>
       <c r="G552" s="1"/>
     </row>
-    <row r="553" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" ht="14.25" customHeight="1" spans="2:7">
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
       <c r="D553" s="2"/>
@@ -4851,7 +5469,7 @@
       <c r="F553" s="3"/>
       <c r="G553" s="1"/>
     </row>
-    <row r="554" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" ht="14.25" customHeight="1" spans="2:7">
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
       <c r="D554" s="2"/>
@@ -4859,7 +5477,7 @@
       <c r="F554" s="3"/>
       <c r="G554" s="1"/>
     </row>
-    <row r="555" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" ht="14.25" customHeight="1" spans="2:7">
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
       <c r="D555" s="2"/>
@@ -4867,7 +5485,7 @@
       <c r="F555" s="3"/>
       <c r="G555" s="1"/>
     </row>
-    <row r="556" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" ht="14.25" customHeight="1" spans="2:7">
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
       <c r="D556" s="2"/>
@@ -4875,7 +5493,7 @@
       <c r="F556" s="3"/>
       <c r="G556" s="1"/>
     </row>
-    <row r="557" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" ht="14.25" customHeight="1" spans="2:7">
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
       <c r="D557" s="2"/>
@@ -4883,7 +5501,7 @@
       <c r="F557" s="3"/>
       <c r="G557" s="1"/>
     </row>
-    <row r="558" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" ht="14.25" customHeight="1" spans="2:7">
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
       <c r="D558" s="2"/>
@@ -4891,7 +5509,7 @@
       <c r="F558" s="3"/>
       <c r="G558" s="1"/>
     </row>
-    <row r="559" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" ht="14.25" customHeight="1" spans="2:7">
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
       <c r="D559" s="2"/>
@@ -4899,7 +5517,7 @@
       <c r="F559" s="3"/>
       <c r="G559" s="1"/>
     </row>
-    <row r="560" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" ht="14.25" customHeight="1" spans="2:7">
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
       <c r="D560" s="2"/>
@@ -4907,7 +5525,7 @@
       <c r="F560" s="3"/>
       <c r="G560" s="1"/>
     </row>
-    <row r="561" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" ht="14.25" customHeight="1" spans="2:7">
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
       <c r="D561" s="2"/>
@@ -4915,7 +5533,7 @@
       <c r="F561" s="3"/>
       <c r="G561" s="1"/>
     </row>
-    <row r="562" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" ht="14.25" customHeight="1" spans="2:7">
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
       <c r="D562" s="2"/>
@@ -4923,7 +5541,7 @@
       <c r="F562" s="3"/>
       <c r="G562" s="1"/>
     </row>
-    <row r="563" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" ht="14.25" customHeight="1" spans="2:7">
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
       <c r="D563" s="2"/>
@@ -4931,7 +5549,7 @@
       <c r="F563" s="3"/>
       <c r="G563" s="1"/>
     </row>
-    <row r="564" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" ht="14.25" customHeight="1" spans="2:7">
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
       <c r="D564" s="2"/>
@@ -4939,7 +5557,7 @@
       <c r="F564" s="3"/>
       <c r="G564" s="1"/>
     </row>
-    <row r="565" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" ht="14.25" customHeight="1" spans="2:7">
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
       <c r="D565" s="2"/>
@@ -4947,7 +5565,7 @@
       <c r="F565" s="3"/>
       <c r="G565" s="1"/>
     </row>
-    <row r="566" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" ht="14.25" customHeight="1" spans="2:7">
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
       <c r="D566" s="2"/>
@@ -4955,7 +5573,7 @@
       <c r="F566" s="3"/>
       <c r="G566" s="1"/>
     </row>
-    <row r="567" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" ht="14.25" customHeight="1" spans="2:7">
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
       <c r="D567" s="2"/>
@@ -4963,7 +5581,7 @@
       <c r="F567" s="3"/>
       <c r="G567" s="1"/>
     </row>
-    <row r="568" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" ht="14.25" customHeight="1" spans="2:7">
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
       <c r="D568" s="2"/>
@@ -4971,7 +5589,7 @@
       <c r="F568" s="3"/>
       <c r="G568" s="1"/>
     </row>
-    <row r="569" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" ht="14.25" customHeight="1" spans="2:7">
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
       <c r="D569" s="2"/>
@@ -4979,7 +5597,7 @@
       <c r="F569" s="3"/>
       <c r="G569" s="1"/>
     </row>
-    <row r="570" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" ht="14.25" customHeight="1" spans="2:7">
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
       <c r="D570" s="2"/>
@@ -4987,7 +5605,7 @@
       <c r="F570" s="3"/>
       <c r="G570" s="1"/>
     </row>
-    <row r="571" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" ht="14.25" customHeight="1" spans="2:7">
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
       <c r="D571" s="2"/>
@@ -4995,7 +5613,7 @@
       <c r="F571" s="3"/>
       <c r="G571" s="1"/>
     </row>
-    <row r="572" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" ht="14.25" customHeight="1" spans="2:7">
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
       <c r="D572" s="2"/>
@@ -5003,7 +5621,7 @@
       <c r="F572" s="3"/>
       <c r="G572" s="1"/>
     </row>
-    <row r="573" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" ht="14.25" customHeight="1" spans="2:7">
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
       <c r="D573" s="2"/>
@@ -5011,7 +5629,7 @@
       <c r="F573" s="3"/>
       <c r="G573" s="1"/>
     </row>
-    <row r="574" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" ht="14.25" customHeight="1" spans="2:7">
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
       <c r="D574" s="2"/>
@@ -5019,7 +5637,7 @@
       <c r="F574" s="3"/>
       <c r="G574" s="1"/>
     </row>
-    <row r="575" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" ht="14.25" customHeight="1" spans="2:7">
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
       <c r="D575" s="2"/>
@@ -5027,7 +5645,7 @@
       <c r="F575" s="3"/>
       <c r="G575" s="1"/>
     </row>
-    <row r="576" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" ht="14.25" customHeight="1" spans="2:7">
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
       <c r="D576" s="2"/>
@@ -5035,7 +5653,7 @@
       <c r="F576" s="3"/>
       <c r="G576" s="1"/>
     </row>
-    <row r="577" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" ht="14.25" customHeight="1" spans="2:7">
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
       <c r="D577" s="2"/>
@@ -5043,7 +5661,7 @@
       <c r="F577" s="3"/>
       <c r="G577" s="1"/>
     </row>
-    <row r="578" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" ht="14.25" customHeight="1" spans="2:7">
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
       <c r="D578" s="2"/>
@@ -5051,7 +5669,7 @@
       <c r="F578" s="3"/>
       <c r="G578" s="1"/>
     </row>
-    <row r="579" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" ht="14.25" customHeight="1" spans="2:7">
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
       <c r="D579" s="2"/>
@@ -5059,7 +5677,7 @@
       <c r="F579" s="3"/>
       <c r="G579" s="1"/>
     </row>
-    <row r="580" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" ht="14.25" customHeight="1" spans="2:7">
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
       <c r="D580" s="2"/>
@@ -5067,7 +5685,7 @@
       <c r="F580" s="3"/>
       <c r="G580" s="1"/>
     </row>
-    <row r="581" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" ht="14.25" customHeight="1" spans="2:7">
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
       <c r="D581" s="2"/>
@@ -5075,7 +5693,7 @@
       <c r="F581" s="3"/>
       <c r="G581" s="1"/>
     </row>
-    <row r="582" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" ht="14.25" customHeight="1" spans="2:7">
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
       <c r="D582" s="2"/>
@@ -5083,7 +5701,7 @@
       <c r="F582" s="3"/>
       <c r="G582" s="1"/>
     </row>
-    <row r="583" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" ht="14.25" customHeight="1" spans="2:7">
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
       <c r="D583" s="2"/>
@@ -5091,7 +5709,7 @@
       <c r="F583" s="3"/>
       <c r="G583" s="1"/>
     </row>
-    <row r="584" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" ht="14.25" customHeight="1" spans="2:7">
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
       <c r="D584" s="2"/>
@@ -5099,7 +5717,7 @@
       <c r="F584" s="3"/>
       <c r="G584" s="1"/>
     </row>
-    <row r="585" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" ht="14.25" customHeight="1" spans="2:7">
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
       <c r="D585" s="2"/>
@@ -5107,7 +5725,7 @@
       <c r="F585" s="3"/>
       <c r="G585" s="1"/>
     </row>
-    <row r="586" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" ht="14.25" customHeight="1" spans="2:7">
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
       <c r="D586" s="2"/>
@@ -5115,7 +5733,7 @@
       <c r="F586" s="3"/>
       <c r="G586" s="1"/>
     </row>
-    <row r="587" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" ht="14.25" customHeight="1" spans="2:7">
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
       <c r="D587" s="2"/>
@@ -5123,7 +5741,7 @@
       <c r="F587" s="3"/>
       <c r="G587" s="1"/>
     </row>
-    <row r="588" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" ht="14.25" customHeight="1" spans="2:7">
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
       <c r="D588" s="2"/>
@@ -5131,7 +5749,7 @@
       <c r="F588" s="3"/>
       <c r="G588" s="1"/>
     </row>
-    <row r="589" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" ht="14.25" customHeight="1" spans="2:7">
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
       <c r="D589" s="2"/>
@@ -5139,7 +5757,7 @@
       <c r="F589" s="3"/>
       <c r="G589" s="1"/>
     </row>
-    <row r="590" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" ht="14.25" customHeight="1" spans="2:7">
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
       <c r="D590" s="2"/>
@@ -5147,7 +5765,7 @@
       <c r="F590" s="3"/>
       <c r="G590" s="1"/>
     </row>
-    <row r="591" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" ht="14.25" customHeight="1" spans="2:7">
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
       <c r="D591" s="2"/>
@@ -5155,7 +5773,7 @@
       <c r="F591" s="3"/>
       <c r="G591" s="1"/>
     </row>
-    <row r="592" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" ht="14.25" customHeight="1" spans="2:7">
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
       <c r="D592" s="2"/>
@@ -5163,7 +5781,7 @@
       <c r="F592" s="3"/>
       <c r="G592" s="1"/>
     </row>
-    <row r="593" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" ht="14.25" customHeight="1" spans="2:7">
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
       <c r="D593" s="2"/>
@@ -5171,7 +5789,7 @@
       <c r="F593" s="3"/>
       <c r="G593" s="1"/>
     </row>
-    <row r="594" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" ht="14.25" customHeight="1" spans="2:7">
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
       <c r="D594" s="2"/>
@@ -5179,7 +5797,7 @@
       <c r="F594" s="3"/>
       <c r="G594" s="1"/>
     </row>
-    <row r="595" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" ht="14.25" customHeight="1" spans="2:7">
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
       <c r="D595" s="2"/>
@@ -5187,7 +5805,7 @@
       <c r="F595" s="3"/>
       <c r="G595" s="1"/>
     </row>
-    <row r="596" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" ht="14.25" customHeight="1" spans="2:7">
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
       <c r="D596" s="2"/>
@@ -5195,7 +5813,7 @@
       <c r="F596" s="3"/>
       <c r="G596" s="1"/>
     </row>
-    <row r="597" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" ht="14.25" customHeight="1" spans="2:7">
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
       <c r="D597" s="2"/>
@@ -5203,7 +5821,7 @@
       <c r="F597" s="3"/>
       <c r="G597" s="1"/>
     </row>
-    <row r="598" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" ht="14.25" customHeight="1" spans="2:7">
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
       <c r="D598" s="2"/>
@@ -5211,7 +5829,7 @@
       <c r="F598" s="3"/>
       <c r="G598" s="1"/>
     </row>
-    <row r="599" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" ht="14.25" customHeight="1" spans="2:7">
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
       <c r="D599" s="2"/>
@@ -5219,7 +5837,7 @@
       <c r="F599" s="3"/>
       <c r="G599" s="1"/>
     </row>
-    <row r="600" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" ht="14.25" customHeight="1" spans="2:7">
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
       <c r="D600" s="2"/>
@@ -5227,7 +5845,7 @@
       <c r="F600" s="3"/>
       <c r="G600" s="1"/>
     </row>
-    <row r="601" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" ht="14.25" customHeight="1" spans="2:7">
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
       <c r="D601" s="2"/>
@@ -5235,7 +5853,7 @@
       <c r="F601" s="3"/>
       <c r="G601" s="1"/>
     </row>
-    <row r="602" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" ht="14.25" customHeight="1" spans="2:7">
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
       <c r="D602" s="2"/>
@@ -5243,7 +5861,7 @@
       <c r="F602" s="3"/>
       <c r="G602" s="1"/>
     </row>
-    <row r="603" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" ht="14.25" customHeight="1" spans="2:7">
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
       <c r="D603" s="2"/>
@@ -5251,7 +5869,7 @@
       <c r="F603" s="3"/>
       <c r="G603" s="1"/>
     </row>
-    <row r="604" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" ht="14.25" customHeight="1" spans="2:7">
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
       <c r="D604" s="2"/>
@@ -5259,7 +5877,7 @@
       <c r="F604" s="3"/>
       <c r="G604" s="1"/>
     </row>
-    <row r="605" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" ht="14.25" customHeight="1" spans="2:7">
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
       <c r="D605" s="2"/>
@@ -5267,7 +5885,7 @@
       <c r="F605" s="3"/>
       <c r="G605" s="1"/>
     </row>
-    <row r="606" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" ht="14.25" customHeight="1" spans="2:7">
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
       <c r="D606" s="2"/>
@@ -5275,7 +5893,7 @@
       <c r="F606" s="3"/>
       <c r="G606" s="1"/>
     </row>
-    <row r="607" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" ht="14.25" customHeight="1" spans="2:7">
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
       <c r="D607" s="2"/>
@@ -5283,7 +5901,7 @@
       <c r="F607" s="3"/>
       <c r="G607" s="1"/>
     </row>
-    <row r="608" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" ht="14.25" customHeight="1" spans="2:7">
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
       <c r="D608" s="2"/>
@@ -5291,7 +5909,7 @@
       <c r="F608" s="3"/>
       <c r="G608" s="1"/>
     </row>
-    <row r="609" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" ht="14.25" customHeight="1" spans="2:7">
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
       <c r="D609" s="2"/>
@@ -5299,7 +5917,7 @@
       <c r="F609" s="3"/>
       <c r="G609" s="1"/>
     </row>
-    <row r="610" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" ht="14.25" customHeight="1" spans="2:7">
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
       <c r="D610" s="2"/>
@@ -5307,7 +5925,7 @@
       <c r="F610" s="3"/>
       <c r="G610" s="1"/>
     </row>
-    <row r="611" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" ht="14.25" customHeight="1" spans="2:7">
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
       <c r="D611" s="2"/>
@@ -5315,7 +5933,7 @@
       <c r="F611" s="3"/>
       <c r="G611" s="1"/>
     </row>
-    <row r="612" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" ht="14.25" customHeight="1" spans="2:7">
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
       <c r="D612" s="2"/>
@@ -5323,7 +5941,7 @@
       <c r="F612" s="3"/>
       <c r="G612" s="1"/>
     </row>
-    <row r="613" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" ht="14.25" customHeight="1" spans="2:7">
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
       <c r="D613" s="2"/>
@@ -5331,7 +5949,7 @@
       <c r="F613" s="3"/>
       <c r="G613" s="1"/>
     </row>
-    <row r="614" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" ht="14.25" customHeight="1" spans="2:7">
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
       <c r="D614" s="2"/>
@@ -5339,7 +5957,7 @@
       <c r="F614" s="3"/>
       <c r="G614" s="1"/>
     </row>
-    <row r="615" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" ht="14.25" customHeight="1" spans="2:7">
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
       <c r="D615" s="2"/>
@@ -5347,7 +5965,7 @@
       <c r="F615" s="3"/>
       <c r="G615" s="1"/>
     </row>
-    <row r="616" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" ht="14.25" customHeight="1" spans="2:7">
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
       <c r="D616" s="2"/>
@@ -5355,7 +5973,7 @@
       <c r="F616" s="3"/>
       <c r="G616" s="1"/>
     </row>
-    <row r="617" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" ht="14.25" customHeight="1" spans="2:7">
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
       <c r="D617" s="2"/>
@@ -5363,7 +5981,7 @@
       <c r="F617" s="3"/>
       <c r="G617" s="1"/>
     </row>
-    <row r="618" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" ht="14.25" customHeight="1" spans="2:7">
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
       <c r="D618" s="2"/>
@@ -5371,7 +5989,7 @@
       <c r="F618" s="3"/>
       <c r="G618" s="1"/>
     </row>
-    <row r="619" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" ht="14.25" customHeight="1" spans="2:7">
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
       <c r="D619" s="2"/>
@@ -5379,7 +5997,7 @@
       <c r="F619" s="3"/>
       <c r="G619" s="1"/>
     </row>
-    <row r="620" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" ht="14.25" customHeight="1" spans="2:7">
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
       <c r="D620" s="2"/>
@@ -5387,7 +6005,7 @@
       <c r="F620" s="3"/>
       <c r="G620" s="1"/>
     </row>
-    <row r="621" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" ht="14.25" customHeight="1" spans="2:7">
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
       <c r="D621" s="2"/>
@@ -5395,7 +6013,7 @@
       <c r="F621" s="3"/>
       <c r="G621" s="1"/>
     </row>
-    <row r="622" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" ht="14.25" customHeight="1" spans="2:7">
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
       <c r="D622" s="2"/>
@@ -5403,7 +6021,7 @@
       <c r="F622" s="3"/>
       <c r="G622" s="1"/>
     </row>
-    <row r="623" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" ht="14.25" customHeight="1" spans="2:7">
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
       <c r="D623" s="2"/>
@@ -5411,7 +6029,7 @@
       <c r="F623" s="3"/>
       <c r="G623" s="1"/>
     </row>
-    <row r="624" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" ht="14.25" customHeight="1" spans="2:7">
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
       <c r="D624" s="2"/>
@@ -5419,7 +6037,7 @@
       <c r="F624" s="3"/>
       <c r="G624" s="1"/>
     </row>
-    <row r="625" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" ht="14.25" customHeight="1" spans="2:7">
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
       <c r="D625" s="2"/>
@@ -5427,7 +6045,7 @@
       <c r="F625" s="3"/>
       <c r="G625" s="1"/>
     </row>
-    <row r="626" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" ht="14.25" customHeight="1" spans="2:7">
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
       <c r="D626" s="2"/>
@@ -5435,7 +6053,7 @@
       <c r="F626" s="3"/>
       <c r="G626" s="1"/>
     </row>
-    <row r="627" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" ht="14.25" customHeight="1" spans="2:7">
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
       <c r="D627" s="2"/>
@@ -5443,7 +6061,7 @@
       <c r="F627" s="3"/>
       <c r="G627" s="1"/>
     </row>
-    <row r="628" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" ht="14.25" customHeight="1" spans="2:7">
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
       <c r="D628" s="2"/>
@@ -5451,7 +6069,7 @@
       <c r="F628" s="3"/>
       <c r="G628" s="1"/>
     </row>
-    <row r="629" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" ht="14.25" customHeight="1" spans="2:7">
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
       <c r="D629" s="2"/>
@@ -5459,7 +6077,7 @@
       <c r="F629" s="3"/>
       <c r="G629" s="1"/>
     </row>
-    <row r="630" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" ht="14.25" customHeight="1" spans="2:7">
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
       <c r="D630" s="2"/>
@@ -5467,7 +6085,7 @@
       <c r="F630" s="3"/>
       <c r="G630" s="1"/>
     </row>
-    <row r="631" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" ht="14.25" customHeight="1" spans="2:7">
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
       <c r="D631" s="2"/>
@@ -5475,7 +6093,7 @@
       <c r="F631" s="3"/>
       <c r="G631" s="1"/>
     </row>
-    <row r="632" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" ht="14.25" customHeight="1" spans="2:7">
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
       <c r="D632" s="2"/>
@@ -5483,7 +6101,7 @@
       <c r="F632" s="3"/>
       <c r="G632" s="1"/>
     </row>
-    <row r="633" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" ht="14.25" customHeight="1" spans="2:7">
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
       <c r="D633" s="2"/>
@@ -5491,7 +6109,7 @@
       <c r="F633" s="3"/>
       <c r="G633" s="1"/>
     </row>
-    <row r="634" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" ht="14.25" customHeight="1" spans="2:7">
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
       <c r="D634" s="2"/>
@@ -5499,7 +6117,7 @@
       <c r="F634" s="3"/>
       <c r="G634" s="1"/>
     </row>
-    <row r="635" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" ht="14.25" customHeight="1" spans="2:7">
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
       <c r="D635" s="2"/>
@@ -5507,7 +6125,7 @@
       <c r="F635" s="3"/>
       <c r="G635" s="1"/>
     </row>
-    <row r="636" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" ht="14.25" customHeight="1" spans="2:7">
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
       <c r="D636" s="2"/>
@@ -5515,7 +6133,7 @@
       <c r="F636" s="3"/>
       <c r="G636" s="1"/>
     </row>
-    <row r="637" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" ht="14.25" customHeight="1" spans="2:7">
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
       <c r="D637" s="2"/>
@@ -5523,7 +6141,7 @@
       <c r="F637" s="3"/>
       <c r="G637" s="1"/>
     </row>
-    <row r="638" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" ht="14.25" customHeight="1" spans="2:7">
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
       <c r="D638" s="2"/>
@@ -5531,7 +6149,7 @@
       <c r="F638" s="3"/>
       <c r="G638" s="1"/>
     </row>
-    <row r="639" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" ht="14.25" customHeight="1" spans="2:7">
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
       <c r="D639" s="2"/>
@@ -5539,7 +6157,7 @@
       <c r="F639" s="3"/>
       <c r="G639" s="1"/>
     </row>
-    <row r="640" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" ht="14.25" customHeight="1" spans="2:7">
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
       <c r="D640" s="2"/>
@@ -5547,7 +6165,7 @@
       <c r="F640" s="3"/>
       <c r="G640" s="1"/>
     </row>
-    <row r="641" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" ht="14.25" customHeight="1" spans="2:7">
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
       <c r="D641" s="2"/>
@@ -5555,7 +6173,7 @@
       <c r="F641" s="3"/>
       <c r="G641" s="1"/>
     </row>
-    <row r="642" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" ht="14.25" customHeight="1" spans="2:7">
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
       <c r="D642" s="2"/>
@@ -5563,7 +6181,7 @@
       <c r="F642" s="3"/>
       <c r="G642" s="1"/>
     </row>
-    <row r="643" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" ht="14.25" customHeight="1" spans="2:7">
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
       <c r="D643" s="2"/>
@@ -5571,7 +6189,7 @@
       <c r="F643" s="3"/>
       <c r="G643" s="1"/>
     </row>
-    <row r="644" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" ht="14.25" customHeight="1" spans="2:7">
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
       <c r="D644" s="2"/>
@@ -5579,7 +6197,7 @@
       <c r="F644" s="3"/>
       <c r="G644" s="1"/>
     </row>
-    <row r="645" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" ht="14.25" customHeight="1" spans="2:7">
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
       <c r="D645" s="2"/>
@@ -5587,7 +6205,7 @@
       <c r="F645" s="3"/>
       <c r="G645" s="1"/>
     </row>
-    <row r="646" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" ht="14.25" customHeight="1" spans="2:7">
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
       <c r="D646" s="2"/>
@@ -5595,7 +6213,7 @@
       <c r="F646" s="3"/>
       <c r="G646" s="1"/>
     </row>
-    <row r="647" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" ht="14.25" customHeight="1" spans="2:7">
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
       <c r="D647" s="2"/>
@@ -5603,7 +6221,7 @@
       <c r="F647" s="3"/>
       <c r="G647" s="1"/>
     </row>
-    <row r="648" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" ht="14.25" customHeight="1" spans="2:7">
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
       <c r="D648" s="2"/>
@@ -5611,7 +6229,7 @@
       <c r="F648" s="3"/>
       <c r="G648" s="1"/>
     </row>
-    <row r="649" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" ht="14.25" customHeight="1" spans="2:7">
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
       <c r="D649" s="2"/>
@@ -5619,7 +6237,7 @@
       <c r="F649" s="3"/>
       <c r="G649" s="1"/>
     </row>
-    <row r="650" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" ht="14.25" customHeight="1" spans="2:7">
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
       <c r="D650" s="2"/>
@@ -5627,7 +6245,7 @@
       <c r="F650" s="3"/>
       <c r="G650" s="1"/>
     </row>
-    <row r="651" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" ht="14.25" customHeight="1" spans="2:7">
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
       <c r="D651" s="2"/>
@@ -5635,7 +6253,7 @@
       <c r="F651" s="3"/>
       <c r="G651" s="1"/>
     </row>
-    <row r="652" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" ht="14.25" customHeight="1" spans="2:7">
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
       <c r="D652" s="2"/>
@@ -5643,7 +6261,7 @@
       <c r="F652" s="3"/>
       <c r="G652" s="1"/>
     </row>
-    <row r="653" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" ht="14.25" customHeight="1" spans="2:7">
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
       <c r="D653" s="2"/>
@@ -5651,7 +6269,7 @@
       <c r="F653" s="3"/>
       <c r="G653" s="1"/>
     </row>
-    <row r="654" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" ht="14.25" customHeight="1" spans="2:7">
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
       <c r="D654" s="2"/>
@@ -5659,7 +6277,7 @@
       <c r="F654" s="3"/>
       <c r="G654" s="1"/>
     </row>
-    <row r="655" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" ht="14.25" customHeight="1" spans="2:7">
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
       <c r="D655" s="2"/>
@@ -5667,7 +6285,7 @@
       <c r="F655" s="3"/>
       <c r="G655" s="1"/>
     </row>
-    <row r="656" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" ht="14.25" customHeight="1" spans="2:7">
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
       <c r="D656" s="2"/>
@@ -5675,7 +6293,7 @@
       <c r="F656" s="3"/>
       <c r="G656" s="1"/>
     </row>
-    <row r="657" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" ht="14.25" customHeight="1" spans="2:7">
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
       <c r="D657" s="2"/>
@@ -5683,7 +6301,7 @@
       <c r="F657" s="3"/>
       <c r="G657" s="1"/>
     </row>
-    <row r="658" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" ht="14.25" customHeight="1" spans="2:7">
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
       <c r="D658" s="2"/>
@@ -5691,7 +6309,7 @@
       <c r="F658" s="3"/>
       <c r="G658" s="1"/>
     </row>
-    <row r="659" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" ht="14.25" customHeight="1" spans="2:7">
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
       <c r="D659" s="2"/>
@@ -5699,7 +6317,7 @@
       <c r="F659" s="3"/>
       <c r="G659" s="1"/>
     </row>
-    <row r="660" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" ht="14.25" customHeight="1" spans="2:7">
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
       <c r="D660" s="2"/>
@@ -5707,7 +6325,7 @@
       <c r="F660" s="3"/>
       <c r="G660" s="1"/>
     </row>
-    <row r="661" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" ht="14.25" customHeight="1" spans="2:7">
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
       <c r="D661" s="2"/>
@@ -5715,7 +6333,7 @@
       <c r="F661" s="3"/>
       <c r="G661" s="1"/>
     </row>
-    <row r="662" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" ht="14.25" customHeight="1" spans="2:7">
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
       <c r="D662" s="2"/>
@@ -5723,7 +6341,7 @@
       <c r="F662" s="3"/>
       <c r="G662" s="1"/>
     </row>
-    <row r="663" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" ht="14.25" customHeight="1" spans="2:7">
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
       <c r="D663" s="2"/>
@@ -5731,7 +6349,7 @@
       <c r="F663" s="3"/>
       <c r="G663" s="1"/>
     </row>
-    <row r="664" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" ht="14.25" customHeight="1" spans="2:7">
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
       <c r="D664" s="2"/>
@@ -5739,7 +6357,7 @@
       <c r="F664" s="3"/>
       <c r="G664" s="1"/>
     </row>
-    <row r="665" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" ht="14.25" customHeight="1" spans="2:7">
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
       <c r="D665" s="2"/>
@@ -5747,7 +6365,7 @@
       <c r="F665" s="3"/>
       <c r="G665" s="1"/>
     </row>
-    <row r="666" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" ht="14.25" customHeight="1" spans="2:7">
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
       <c r="D666" s="2"/>
@@ -5755,7 +6373,7 @@
       <c r="F666" s="3"/>
       <c r="G666" s="1"/>
     </row>
-    <row r="667" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" ht="14.25" customHeight="1" spans="2:7">
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
       <c r="D667" s="2"/>
@@ -5763,7 +6381,7 @@
       <c r="F667" s="3"/>
       <c r="G667" s="1"/>
     </row>
-    <row r="668" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" ht="14.25" customHeight="1" spans="2:7">
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
       <c r="D668" s="2"/>
@@ -5771,7 +6389,7 @@
       <c r="F668" s="3"/>
       <c r="G668" s="1"/>
     </row>
-    <row r="669" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" ht="14.25" customHeight="1" spans="2:7">
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
       <c r="D669" s="2"/>
@@ -5779,7 +6397,7 @@
       <c r="F669" s="3"/>
       <c r="G669" s="1"/>
     </row>
-    <row r="670" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" ht="14.25" customHeight="1" spans="2:7">
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
       <c r="D670" s="2"/>
@@ -5787,7 +6405,7 @@
       <c r="F670" s="3"/>
       <c r="G670" s="1"/>
     </row>
-    <row r="671" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" ht="14.25" customHeight="1" spans="2:7">
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
       <c r="D671" s="2"/>
@@ -5795,7 +6413,7 @@
       <c r="F671" s="3"/>
       <c r="G671" s="1"/>
     </row>
-    <row r="672" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" ht="14.25" customHeight="1" spans="2:7">
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
       <c r="D672" s="2"/>
@@ -5803,7 +6421,7 @@
       <c r="F672" s="3"/>
       <c r="G672" s="1"/>
     </row>
-    <row r="673" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" ht="14.25" customHeight="1" spans="2:7">
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
       <c r="D673" s="2"/>
@@ -5811,7 +6429,7 @@
       <c r="F673" s="3"/>
       <c r="G673" s="1"/>
     </row>
-    <row r="674" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" ht="14.25" customHeight="1" spans="2:7">
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
       <c r="D674" s="2"/>
@@ -5819,335 +6437,338 @@
       <c r="F674" s="3"/>
       <c r="G674" s="1"/>
     </row>
-    <row r="675" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="676" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="677" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="678" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="679" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="680" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="681" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="682" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="683" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="684" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="685" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="686" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="687" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="688" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="14.25" customHeight="1"/>
+    <row r="676" ht="14.25" customHeight="1"/>
+    <row r="677" ht="14.25" customHeight="1"/>
+    <row r="678" ht="14.25" customHeight="1"/>
+    <row r="679" ht="14.25" customHeight="1"/>
+    <row r="680" ht="14.25" customHeight="1"/>
+    <row r="681" ht="14.25" customHeight="1"/>
+    <row r="682" ht="14.25" customHeight="1"/>
+    <row r="683" ht="14.25" customHeight="1"/>
+    <row r="684" ht="14.25" customHeight="1"/>
+    <row r="685" ht="14.25" customHeight="1"/>
+    <row r="686" ht="14.25" customHeight="1"/>
+    <row r="687" ht="14.25" customHeight="1"/>
+    <row r="688" ht="14.25" customHeight="1"/>
+    <row r="689" ht="14.25" customHeight="1"/>
+    <row r="690" ht="14.25" customHeight="1"/>
+    <row r="691" ht="14.25" customHeight="1"/>
+    <row r="692" ht="14.25" customHeight="1"/>
+    <row r="693" ht="14.25" customHeight="1"/>
+    <row r="694" ht="14.25" customHeight="1"/>
+    <row r="695" ht="14.25" customHeight="1"/>
+    <row r="696" ht="14.25" customHeight="1"/>
+    <row r="697" ht="14.25" customHeight="1"/>
+    <row r="698" ht="14.25" customHeight="1"/>
+    <row r="699" ht="14.25" customHeight="1"/>
+    <row r="700" ht="14.25" customHeight="1"/>
+    <row r="701" ht="14.25" customHeight="1"/>
+    <row r="702" ht="14.25" customHeight="1"/>
+    <row r="703" ht="14.25" customHeight="1"/>
+    <row r="704" ht="14.25" customHeight="1"/>
+    <row r="705" ht="14.25" customHeight="1"/>
+    <row r="706" ht="14.25" customHeight="1"/>
+    <row r="707" ht="14.25" customHeight="1"/>
+    <row r="708" ht="14.25" customHeight="1"/>
+    <row r="709" ht="14.25" customHeight="1"/>
+    <row r="710" ht="14.25" customHeight="1"/>
+    <row r="711" ht="14.25" customHeight="1"/>
+    <row r="712" ht="14.25" customHeight="1"/>
+    <row r="713" ht="14.25" customHeight="1"/>
+    <row r="714" ht="14.25" customHeight="1"/>
+    <row r="715" ht="14.25" customHeight="1"/>
+    <row r="716" ht="14.25" customHeight="1"/>
+    <row r="717" ht="14.25" customHeight="1"/>
+    <row r="718" ht="14.25" customHeight="1"/>
+    <row r="719" ht="14.25" customHeight="1"/>
+    <row r="720" ht="14.25" customHeight="1"/>
+    <row r="721" ht="14.25" customHeight="1"/>
+    <row r="722" ht="14.25" customHeight="1"/>
+    <row r="723" ht="14.25" customHeight="1"/>
+    <row r="724" ht="14.25" customHeight="1"/>
+    <row r="725" ht="14.25" customHeight="1"/>
+    <row r="726" ht="14.25" customHeight="1"/>
+    <row r="727" ht="14.25" customHeight="1"/>
+    <row r="728" ht="14.25" customHeight="1"/>
+    <row r="729" ht="14.25" customHeight="1"/>
+    <row r="730" ht="14.25" customHeight="1"/>
+    <row r="731" ht="14.25" customHeight="1"/>
+    <row r="732" ht="14.25" customHeight="1"/>
+    <row r="733" ht="14.25" customHeight="1"/>
+    <row r="734" ht="14.25" customHeight="1"/>
+    <row r="735" ht="14.25" customHeight="1"/>
+    <row r="736" ht="14.25" customHeight="1"/>
+    <row r="737" ht="14.25" customHeight="1"/>
+    <row r="738" ht="14.25" customHeight="1"/>
+    <row r="739" ht="14.25" customHeight="1"/>
+    <row r="740" ht="14.25" customHeight="1"/>
+    <row r="741" ht="14.25" customHeight="1"/>
+    <row r="742" ht="14.25" customHeight="1"/>
+    <row r="743" ht="14.25" customHeight="1"/>
+    <row r="744" ht="14.25" customHeight="1"/>
+    <row r="745" ht="14.25" customHeight="1"/>
+    <row r="746" ht="14.25" customHeight="1"/>
+    <row r="747" ht="14.25" customHeight="1"/>
+    <row r="748" ht="14.25" customHeight="1"/>
+    <row r="749" ht="14.25" customHeight="1"/>
+    <row r="750" ht="14.25" customHeight="1"/>
+    <row r="751" ht="14.25" customHeight="1"/>
+    <row r="752" ht="14.25" customHeight="1"/>
+    <row r="753" ht="14.25" customHeight="1"/>
+    <row r="754" ht="14.25" customHeight="1"/>
+    <row r="755" ht="14.25" customHeight="1"/>
+    <row r="756" ht="14.25" customHeight="1"/>
+    <row r="757" ht="14.25" customHeight="1"/>
+    <row r="758" ht="14.25" customHeight="1"/>
+    <row r="759" ht="14.25" customHeight="1"/>
+    <row r="760" ht="14.25" customHeight="1"/>
+    <row r="761" ht="14.25" customHeight="1"/>
+    <row r="762" ht="14.25" customHeight="1"/>
+    <row r="763" ht="14.25" customHeight="1"/>
+    <row r="764" ht="14.25" customHeight="1"/>
+    <row r="765" ht="14.25" customHeight="1"/>
+    <row r="766" ht="14.25" customHeight="1"/>
+    <row r="767" ht="14.25" customHeight="1"/>
+    <row r="768" ht="14.25" customHeight="1"/>
+    <row r="769" ht="14.25" customHeight="1"/>
+    <row r="770" ht="14.25" customHeight="1"/>
+    <row r="771" ht="14.25" customHeight="1"/>
+    <row r="772" ht="14.25" customHeight="1"/>
+    <row r="773" ht="14.25" customHeight="1"/>
+    <row r="774" ht="14.25" customHeight="1"/>
+    <row r="775" ht="14.25" customHeight="1"/>
+    <row r="776" ht="14.25" customHeight="1"/>
+    <row r="777" ht="14.25" customHeight="1"/>
+    <row r="778" ht="14.25" customHeight="1"/>
+    <row r="779" ht="14.25" customHeight="1"/>
+    <row r="780" ht="14.25" customHeight="1"/>
+    <row r="781" ht="14.25" customHeight="1"/>
+    <row r="782" ht="14.25" customHeight="1"/>
+    <row r="783" ht="14.25" customHeight="1"/>
+    <row r="784" ht="14.25" customHeight="1"/>
+    <row r="785" ht="14.25" customHeight="1"/>
+    <row r="786" ht="14.25" customHeight="1"/>
+    <row r="787" ht="14.25" customHeight="1"/>
+    <row r="788" ht="14.25" customHeight="1"/>
+    <row r="789" ht="14.25" customHeight="1"/>
+    <row r="790" ht="14.25" customHeight="1"/>
+    <row r="791" ht="14.25" customHeight="1"/>
+    <row r="792" ht="14.25" customHeight="1"/>
+    <row r="793" ht="14.25" customHeight="1"/>
+    <row r="794" ht="14.25" customHeight="1"/>
+    <row r="795" ht="14.25" customHeight="1"/>
+    <row r="796" ht="14.25" customHeight="1"/>
+    <row r="797" ht="14.25" customHeight="1"/>
+    <row r="798" ht="14.25" customHeight="1"/>
+    <row r="799" ht="14.25" customHeight="1"/>
+    <row r="800" ht="14.25" customHeight="1"/>
+    <row r="801" ht="14.25" customHeight="1"/>
+    <row r="802" ht="14.25" customHeight="1"/>
+    <row r="803" ht="14.25" customHeight="1"/>
+    <row r="804" ht="14.25" customHeight="1"/>
+    <row r="805" ht="14.25" customHeight="1"/>
+    <row r="806" ht="14.25" customHeight="1"/>
+    <row r="807" ht="14.25" customHeight="1"/>
+    <row r="808" ht="14.25" customHeight="1"/>
+    <row r="809" ht="14.25" customHeight="1"/>
+    <row r="810" ht="14.25" customHeight="1"/>
+    <row r="811" ht="14.25" customHeight="1"/>
+    <row r="812" ht="14.25" customHeight="1"/>
+    <row r="813" ht="14.25" customHeight="1"/>
+    <row r="814" ht="14.25" customHeight="1"/>
+    <row r="815" ht="14.25" customHeight="1"/>
+    <row r="816" ht="14.25" customHeight="1"/>
+    <row r="817" ht="14.25" customHeight="1"/>
+    <row r="818" ht="14.25" customHeight="1"/>
+    <row r="819" ht="14.25" customHeight="1"/>
+    <row r="820" ht="14.25" customHeight="1"/>
+    <row r="821" ht="14.25" customHeight="1"/>
+    <row r="822" ht="14.25" customHeight="1"/>
+    <row r="823" ht="14.25" customHeight="1"/>
+    <row r="824" ht="14.25" customHeight="1"/>
+    <row r="825" ht="14.25" customHeight="1"/>
+    <row r="826" ht="14.25" customHeight="1"/>
+    <row r="827" ht="14.25" customHeight="1"/>
+    <row r="828" ht="14.25" customHeight="1"/>
+    <row r="829" ht="14.25" customHeight="1"/>
+    <row r="830" ht="14.25" customHeight="1"/>
+    <row r="831" ht="14.25" customHeight="1"/>
+    <row r="832" ht="14.25" customHeight="1"/>
+    <row r="833" ht="14.25" customHeight="1"/>
+    <row r="834" ht="14.25" customHeight="1"/>
+    <row r="835" ht="14.25" customHeight="1"/>
+    <row r="836" ht="14.25" customHeight="1"/>
+    <row r="837" ht="14.25" customHeight="1"/>
+    <row r="838" ht="14.25" customHeight="1"/>
+    <row r="839" ht="14.25" customHeight="1"/>
+    <row r="840" ht="14.25" customHeight="1"/>
+    <row r="841" ht="14.25" customHeight="1"/>
+    <row r="842" ht="14.25" customHeight="1"/>
+    <row r="843" ht="14.25" customHeight="1"/>
+    <row r="844" ht="14.25" customHeight="1"/>
+    <row r="845" ht="14.25" customHeight="1"/>
+    <row r="846" ht="14.25" customHeight="1"/>
+    <row r="847" ht="14.25" customHeight="1"/>
+    <row r="848" ht="14.25" customHeight="1"/>
+    <row r="849" ht="14.25" customHeight="1"/>
+    <row r="850" ht="14.25" customHeight="1"/>
+    <row r="851" ht="14.25" customHeight="1"/>
+    <row r="852" ht="14.25" customHeight="1"/>
+    <row r="853" ht="14.25" customHeight="1"/>
+    <row r="854" ht="14.25" customHeight="1"/>
+    <row r="855" ht="14.25" customHeight="1"/>
+    <row r="856" ht="14.25" customHeight="1"/>
+    <row r="857" ht="14.25" customHeight="1"/>
+    <row r="858" ht="14.25" customHeight="1"/>
+    <row r="859" ht="14.25" customHeight="1"/>
+    <row r="860" ht="14.25" customHeight="1"/>
+    <row r="861" ht="14.25" customHeight="1"/>
+    <row r="862" ht="14.25" customHeight="1"/>
+    <row r="863" ht="14.25" customHeight="1"/>
+    <row r="864" ht="14.25" customHeight="1"/>
+    <row r="865" ht="14.25" customHeight="1"/>
+    <row r="866" ht="14.25" customHeight="1"/>
+    <row r="867" ht="14.25" customHeight="1"/>
+    <row r="868" ht="14.25" customHeight="1"/>
+    <row r="869" ht="14.25" customHeight="1"/>
+    <row r="870" ht="14.25" customHeight="1"/>
+    <row r="871" ht="14.25" customHeight="1"/>
+    <row r="872" ht="14.25" customHeight="1"/>
+    <row r="873" ht="14.25" customHeight="1"/>
+    <row r="874" ht="14.25" customHeight="1"/>
+    <row r="875" ht="14.25" customHeight="1"/>
+    <row r="876" ht="14.25" customHeight="1"/>
+    <row r="877" ht="14.25" customHeight="1"/>
+    <row r="878" ht="14.25" customHeight="1"/>
+    <row r="879" ht="14.25" customHeight="1"/>
+    <row r="880" ht="14.25" customHeight="1"/>
+    <row r="881" ht="14.25" customHeight="1"/>
+    <row r="882" ht="14.25" customHeight="1"/>
+    <row r="883" ht="14.25" customHeight="1"/>
+    <row r="884" ht="14.25" customHeight="1"/>
+    <row r="885" ht="14.25" customHeight="1"/>
+    <row r="886" ht="14.25" customHeight="1"/>
+    <row r="887" ht="14.25" customHeight="1"/>
+    <row r="888" ht="14.25" customHeight="1"/>
+    <row r="889" ht="14.25" customHeight="1"/>
+    <row r="890" ht="14.25" customHeight="1"/>
+    <row r="891" ht="14.25" customHeight="1"/>
+    <row r="892" ht="14.25" customHeight="1"/>
+    <row r="893" ht="14.25" customHeight="1"/>
+    <row r="894" ht="14.25" customHeight="1"/>
+    <row r="895" ht="14.25" customHeight="1"/>
+    <row r="896" ht="14.25" customHeight="1"/>
+    <row r="897" ht="14.25" customHeight="1"/>
+    <row r="898" ht="14.25" customHeight="1"/>
+    <row r="899" ht="14.25" customHeight="1"/>
+    <row r="900" ht="14.25" customHeight="1"/>
+    <row r="901" ht="14.25" customHeight="1"/>
+    <row r="902" ht="14.25" customHeight="1"/>
+    <row r="903" ht="14.25" customHeight="1"/>
+    <row r="904" ht="14.25" customHeight="1"/>
+    <row r="905" ht="14.25" customHeight="1"/>
+    <row r="906" ht="14.25" customHeight="1"/>
+    <row r="907" ht="14.25" customHeight="1"/>
+    <row r="908" ht="14.25" customHeight="1"/>
+    <row r="909" ht="14.25" customHeight="1"/>
+    <row r="910" ht="14.25" customHeight="1"/>
+    <row r="911" ht="14.25" customHeight="1"/>
+    <row r="912" ht="14.25" customHeight="1"/>
+    <row r="913" ht="14.25" customHeight="1"/>
+    <row r="914" ht="14.25" customHeight="1"/>
+    <row r="915" ht="14.25" customHeight="1"/>
+    <row r="916" ht="14.25" customHeight="1"/>
+    <row r="917" ht="14.25" customHeight="1"/>
+    <row r="918" ht="14.25" customHeight="1"/>
+    <row r="919" ht="14.25" customHeight="1"/>
+    <row r="920" ht="14.25" customHeight="1"/>
+    <row r="921" ht="14.25" customHeight="1"/>
+    <row r="922" ht="14.25" customHeight="1"/>
+    <row r="923" ht="14.25" customHeight="1"/>
+    <row r="924" ht="14.25" customHeight="1"/>
+    <row r="925" ht="14.25" customHeight="1"/>
+    <row r="926" ht="14.25" customHeight="1"/>
+    <row r="927" ht="14.25" customHeight="1"/>
+    <row r="928" ht="14.25" customHeight="1"/>
+    <row r="929" ht="14.25" customHeight="1"/>
+    <row r="930" ht="14.25" customHeight="1"/>
+    <row r="931" ht="14.25" customHeight="1"/>
+    <row r="932" ht="14.25" customHeight="1"/>
+    <row r="933" ht="14.25" customHeight="1"/>
+    <row r="934" ht="14.25" customHeight="1"/>
+    <row r="935" ht="14.25" customHeight="1"/>
+    <row r="936" ht="14.25" customHeight="1"/>
+    <row r="937" ht="14.25" customHeight="1"/>
+    <row r="938" ht="14.25" customHeight="1"/>
+    <row r="939" ht="14.25" customHeight="1"/>
+    <row r="940" ht="14.25" customHeight="1"/>
+    <row r="941" ht="14.25" customHeight="1"/>
+    <row r="942" ht="14.25" customHeight="1"/>
+    <row r="943" ht="14.25" customHeight="1"/>
+    <row r="944" ht="14.25" customHeight="1"/>
+    <row r="945" ht="14.25" customHeight="1"/>
+    <row r="946" ht="14.25" customHeight="1"/>
+    <row r="947" ht="14.25" customHeight="1"/>
+    <row r="948" ht="14.25" customHeight="1"/>
+    <row r="949" ht="14.25" customHeight="1"/>
+    <row r="950" ht="14.25" customHeight="1"/>
+    <row r="951" ht="14.25" customHeight="1"/>
+    <row r="952" ht="14.25" customHeight="1"/>
+    <row r="953" ht="14.25" customHeight="1"/>
+    <row r="954" ht="14.25" customHeight="1"/>
+    <row r="955" ht="14.25" customHeight="1"/>
+    <row r="956" ht="14.25" customHeight="1"/>
+    <row r="957" ht="14.25" customHeight="1"/>
+    <row r="958" ht="14.25" customHeight="1"/>
+    <row r="959" ht="14.25" customHeight="1"/>
+    <row r="960" ht="14.25" customHeight="1"/>
+    <row r="961" ht="14.25" customHeight="1"/>
+    <row r="962" ht="14.25" customHeight="1"/>
+    <row r="963" ht="14.25" customHeight="1"/>
+    <row r="964" ht="14.25" customHeight="1"/>
+    <row r="965" ht="14.25" customHeight="1"/>
+    <row r="966" ht="14.25" customHeight="1"/>
+    <row r="967" ht="14.25" customHeight="1"/>
+    <row r="968" ht="14.25" customHeight="1"/>
+    <row r="969" ht="14.25" customHeight="1"/>
+    <row r="970" ht="14.25" customHeight="1"/>
+    <row r="971" ht="14.25" customHeight="1"/>
+    <row r="972" ht="14.25" customHeight="1"/>
+    <row r="973" ht="14.25" customHeight="1"/>
+    <row r="974" ht="14.25" customHeight="1"/>
+    <row r="975" ht="14.25" customHeight="1"/>
+    <row r="976" ht="14.25" customHeight="1"/>
+    <row r="977" ht="14.25" customHeight="1"/>
+    <row r="978" ht="14.25" customHeight="1"/>
+    <row r="979" ht="14.25" customHeight="1"/>
+    <row r="980" ht="14.25" customHeight="1"/>
+    <row r="981" ht="14.25" customHeight="1"/>
+    <row r="982" ht="14.25" customHeight="1"/>
+    <row r="983" ht="14.25" customHeight="1"/>
+    <row r="984" ht="14.25" customHeight="1"/>
+    <row r="985" ht="14.25" customHeight="1"/>
+    <row r="986" ht="14.25" customHeight="1"/>
+    <row r="987" ht="14.25" customHeight="1"/>
+    <row r="988" ht="14.25" customHeight="1"/>
+    <row r="989" ht="14.25" customHeight="1"/>
+    <row r="990" ht="14.25" customHeight="1"/>
+    <row r="991" ht="14.25" customHeight="1"/>
+    <row r="992" ht="14.25" customHeight="1"/>
+    <row r="993" ht="14.25" customHeight="1"/>
+    <row r="994" ht="14.25" customHeight="1"/>
+    <row r="995" ht="14.25" customHeight="1"/>
+    <row r="996" ht="14.25" customHeight="1"/>
+    <row r="997" ht="14.25" customHeight="1"/>
+    <row r="998" ht="14.25" customHeight="1"/>
+    <row r="999" ht="14.25" customHeight="1"/>
+    <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1" display="https://forms.gle/9dqToFd3MhNk9Po67"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup paperSize="1" orientation="landscape"/>
+  <headerFooter/>
 </worksheet>
 </file>